--- a/PagoExpensas/AlquileresApp-P561972.xlsx
+++ b/PagoExpensas/AlquileresApp-P561972.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eduardo/Documents/GitHub/Personal/PagoExpensas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B93275-1CBE-A742-B5D3-72049C281573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E34103A-F72A-0540-8E76-07CC9E84A1DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23120" windowHeight="16100" tabRatio="535" firstSheet="10" activeTab="15" xr2:uid="{588A6F5C-727E-C144-960C-2E5EA3C9F402}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="535" firstSheet="10" activeTab="16" xr2:uid="{588A6F5C-727E-C144-960C-2E5EA3C9F402}"/>
   </bookViews>
   <sheets>
     <sheet name="Ingresos" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="180">
   <si>
     <t>Fotographos</t>
   </si>
@@ -601,6 +601,9 @@
   </si>
   <si>
     <t>$</t>
+  </si>
+  <si>
+    <t>24 a</t>
   </si>
 </sst>
 </file>
@@ -1358,48 +1361,6 @@
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1412,6 +1373,48 @@
     </xf>
     <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3655,11 +3658,11 @@
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="110"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="115"/>
       <c r="F2" s="46"/>
       <c r="G2" s="45"/>
       <c r="H2" s="45"/>
@@ -3673,10 +3676,10 @@
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="111" t="s">
+      <c r="B4" s="116" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="112"/>
+      <c r="C4" s="117"/>
       <c r="D4" s="20" t="s">
         <v>20</v>
       </c>
@@ -3749,12 +3752,12 @@
       <c r="H12" s="45"/>
     </row>
     <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="113" t="s">
+      <c r="A13" s="118" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="114"/>
-      <c r="C13" s="114"/>
-      <c r="D13" s="115"/>
+      <c r="B13" s="119"/>
+      <c r="C13" s="119"/>
+      <c r="D13" s="120"/>
       <c r="F13" s="46"/>
       <c r="G13" s="45"/>
       <c r="H13" s="45"/>
@@ -3817,12 +3820,12 @@
       <c r="H18" s="45"/>
     </row>
     <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="116" t="s">
+      <c r="A19" s="121" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="117"/>
-      <c r="C19" s="117"/>
-      <c r="D19" s="118"/>
+      <c r="B19" s="122"/>
+      <c r="C19" s="122"/>
+      <c r="D19" s="123"/>
       <c r="F19" s="46"/>
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
@@ -3944,11 +3947,11 @@
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="113" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="110"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="115"/>
       <c r="F2" s="46"/>
       <c r="G2" s="45"/>
       <c r="H2" s="45"/>
@@ -3962,10 +3965,10 @@
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="111" t="s">
+      <c r="B4" s="116" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="112"/>
+      <c r="C4" s="117"/>
       <c r="D4" s="20" t="s">
         <v>20</v>
       </c>
@@ -4042,12 +4045,12 @@
       <c r="H12" s="45"/>
     </row>
     <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="113" t="s">
+      <c r="A13" s="118" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="114"/>
-      <c r="C13" s="114"/>
-      <c r="D13" s="115"/>
+      <c r="B13" s="119"/>
+      <c r="C13" s="119"/>
+      <c r="D13" s="120"/>
       <c r="F13" s="46"/>
       <c r="G13" s="45"/>
       <c r="H13" s="45"/>
@@ -4105,12 +4108,12 @@
       <c r="H18" s="45"/>
     </row>
     <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="116" t="s">
+      <c r="A19" s="121" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="117"/>
-      <c r="C19" s="117"/>
-      <c r="D19" s="118"/>
+      <c r="B19" s="122"/>
+      <c r="C19" s="122"/>
+      <c r="D19" s="123"/>
       <c r="F19" s="45"/>
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
@@ -4267,11 +4270,11 @@
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="113" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="110"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="115"/>
       <c r="F2" s="46"/>
       <c r="G2" s="45"/>
       <c r="H2" s="45"/>
@@ -4285,10 +4288,10 @@
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="111" t="s">
+      <c r="B4" s="116" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="112"/>
+      <c r="C4" s="117"/>
       <c r="D4" s="20" t="s">
         <v>20</v>
       </c>
@@ -4373,12 +4376,12 @@
       <c r="H12" s="45"/>
     </row>
     <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="113" t="s">
+      <c r="A13" s="118" t="s">
         <v>129</v>
       </c>
-      <c r="B13" s="114"/>
-      <c r="C13" s="114"/>
-      <c r="D13" s="115"/>
+      <c r="B13" s="119"/>
+      <c r="C13" s="119"/>
+      <c r="D13" s="120"/>
       <c r="F13" s="46"/>
       <c r="G13" s="45"/>
       <c r="H13" s="45"/>
@@ -4439,12 +4442,12 @@
       <c r="H18" s="45"/>
     </row>
     <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="116" t="s">
+      <c r="A19" s="121" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="117"/>
-      <c r="C19" s="117"/>
-      <c r="D19" s="118"/>
+      <c r="B19" s="122"/>
+      <c r="C19" s="122"/>
+      <c r="D19" s="123"/>
       <c r="F19" s="46"/>
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
@@ -4570,11 +4573,11 @@
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="113" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="110"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="115"/>
       <c r="F2" s="46"/>
       <c r="G2" s="45"/>
       <c r="H2" s="45"/>
@@ -4588,10 +4591,10 @@
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="111" t="s">
+      <c r="B4" s="116" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="112"/>
+      <c r="C4" s="117"/>
       <c r="D4" s="20" t="s">
         <v>20</v>
       </c>
@@ -4662,12 +4665,12 @@
       <c r="H12" s="45"/>
     </row>
     <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="113" t="s">
+      <c r="A13" s="118" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="114"/>
-      <c r="C13" s="114"/>
-      <c r="D13" s="115"/>
+      <c r="B13" s="119"/>
+      <c r="C13" s="119"/>
+      <c r="D13" s="120"/>
       <c r="F13" s="46"/>
       <c r="G13" s="45"/>
       <c r="H13" s="45"/>
@@ -4729,12 +4732,12 @@
       <c r="H18" s="45"/>
     </row>
     <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="116" t="s">
+      <c r="A19" s="121" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="117"/>
-      <c r="C19" s="117"/>
-      <c r="D19" s="118"/>
+      <c r="B19" s="122"/>
+      <c r="C19" s="122"/>
+      <c r="D19" s="123"/>
       <c r="F19" s="45"/>
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
@@ -4850,11 +4853,11 @@
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="113" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="110"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="115"/>
       <c r="F2" s="46"/>
       <c r="G2" s="45"/>
       <c r="H2" s="45"/>
@@ -4868,10 +4871,10 @@
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="111" t="s">
+      <c r="B4" s="116" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="112"/>
+      <c r="C4" s="117"/>
       <c r="D4" s="20" t="s">
         <v>67</v>
       </c>
@@ -4948,12 +4951,12 @@
       <c r="H12" s="45"/>
     </row>
     <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="113" t="s">
+      <c r="A13" s="118" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="114"/>
-      <c r="C13" s="114"/>
-      <c r="D13" s="115"/>
+      <c r="B13" s="119"/>
+      <c r="C13" s="119"/>
+      <c r="D13" s="120"/>
       <c r="F13" s="46"/>
       <c r="G13" s="45"/>
       <c r="H13" s="45"/>
@@ -5017,12 +5020,12 @@
       <c r="H18" s="45"/>
     </row>
     <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="116" t="s">
+      <c r="A19" s="121" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="117"/>
-      <c r="C19" s="117"/>
-      <c r="D19" s="118"/>
+      <c r="B19" s="122"/>
+      <c r="C19" s="122"/>
+      <c r="D19" s="123"/>
       <c r="F19" s="45"/>
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
@@ -5155,50 +5158,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F1" s="121" t="s">
+      <c r="F1" s="126" t="s">
         <v>144</v>
       </c>
-      <c r="G1" s="120"/>
-      <c r="H1" s="119">
+      <c r="G1" s="125"/>
+      <c r="H1" s="124">
         <v>45170</v>
       </c>
-      <c r="I1" s="120"/>
-      <c r="J1" s="119">
+      <c r="I1" s="125"/>
+      <c r="J1" s="124">
         <v>45200</v>
       </c>
-      <c r="K1" s="120"/>
-      <c r="L1" s="119">
+      <c r="K1" s="125"/>
+      <c r="L1" s="124">
         <v>45231</v>
       </c>
-      <c r="M1" s="120"/>
-      <c r="N1" s="119">
+      <c r="M1" s="125"/>
+      <c r="N1" s="124">
         <v>45261</v>
       </c>
-      <c r="O1" s="120"/>
-      <c r="P1" s="119">
+      <c r="O1" s="125"/>
+      <c r="P1" s="124">
         <v>45292</v>
       </c>
-      <c r="Q1" s="120"/>
-      <c r="R1" s="119">
+      <c r="Q1" s="125"/>
+      <c r="R1" s="124">
         <v>45323</v>
       </c>
-      <c r="S1" s="120"/>
-      <c r="T1" s="119">
+      <c r="S1" s="125"/>
+      <c r="T1" s="124">
         <v>45352</v>
       </c>
-      <c r="U1" s="120"/>
-      <c r="V1" s="119">
+      <c r="U1" s="125"/>
+      <c r="V1" s="124">
         <v>45383</v>
       </c>
-      <c r="W1" s="120"/>
-      <c r="X1" s="119">
+      <c r="W1" s="125"/>
+      <c r="X1" s="124">
         <v>45413</v>
       </c>
-      <c r="Y1" s="120"/>
-      <c r="Z1" s="119">
+      <c r="Y1" s="125"/>
+      <c r="Z1" s="124">
         <v>45444</v>
       </c>
-      <c r="AA1" s="120"/>
+      <c r="AA1" s="125"/>
     </row>
     <row r="2" spans="1:27" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="65" t="s">
@@ -6193,17 +6196,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="R1:S1"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="N1:O1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="R1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6213,81 +6216,81 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{681238DF-850D-6C47-B4F1-C2F2B8EBAEEB}">
   <dimension ref="A2:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" style="122" customWidth="1"/>
-    <col min="2" max="2" width="3.33203125" style="123" customWidth="1"/>
-    <col min="3" max="3" width="14.5" style="122" customWidth="1"/>
-    <col min="4" max="16384" width="11" style="122"/>
+    <col min="1" max="1" width="13.6640625" style="108" customWidth="1"/>
+    <col min="2" max="2" width="3.33203125" style="109" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="108" customWidth="1"/>
+    <col min="4" max="16384" width="11" style="108"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" s="124" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="124" t="s">
+    <row r="2" spans="1:3" s="110" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="110" t="s">
         <v>167</v>
       </c>
-      <c r="B2" s="125" t="s">
+      <c r="B2" s="111" t="s">
         <v>178</v>
       </c>
-      <c r="C2" s="126">
+      <c r="C2" s="112">
         <v>267000</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="124" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="124" t="s">
+    <row r="3" spans="1:3" s="110" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="110" t="s">
         <v>174</v>
       </c>
-      <c r="B3" s="125" t="s">
+      <c r="B3" s="111" t="s">
         <v>178</v>
       </c>
-      <c r="C3" s="126">
+      <c r="C3" s="112">
         <v>117417.77</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="124" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="124" t="s">
+    <row r="4" spans="1:3" s="110" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="110" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="125" t="s">
+      <c r="B4" s="111" t="s">
         <v>178</v>
       </c>
-      <c r="C4" s="126">
+      <c r="C4" s="112">
         <v>3271</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="124" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="124" t="s">
+    <row r="5" spans="1:3" s="110" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="110" t="s">
         <v>176</v>
       </c>
-      <c r="B5" s="125" t="s">
+      <c r="B5" s="111" t="s">
         <v>178</v>
       </c>
-      <c r="C5" s="126">
+      <c r="C5" s="112">
         <v>6762</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="124" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="124" t="s">
+    <row r="6" spans="1:3" s="110" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="110" t="s">
         <v>177</v>
       </c>
-      <c r="B6" s="125" t="s">
+      <c r="B6" s="111" t="s">
         <v>178</v>
       </c>
-      <c r="C6" s="126">
+      <c r="C6" s="112">
         <v>14472</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="124" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="124" t="s">
+    <row r="7" spans="1:3" s="110" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="110" t="s">
         <v>164</v>
       </c>
-      <c r="B7" s="125" t="s">
+      <c r="B7" s="111" t="s">
         <v>178</v>
       </c>
-      <c r="C7" s="126">
+      <c r="C7" s="112">
         <f>SUM(C2:C6)</f>
         <v>408922.77</v>
       </c>
@@ -6299,10 +6302,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4F33156-2118-7347-88EF-33566C005459}">
-  <dimension ref="B1:Q27"/>
+  <dimension ref="B1:Q28"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6458,27 +6461,27 @@
       <c r="P6" s="100"/>
       <c r="Q6" s="100"/>
     </row>
-    <row r="7" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="105"/>
-      <c r="C7" s="74">
+    <row r="7" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="98"/>
+      <c r="C7" s="65">
         <v>277</v>
       </c>
-      <c r="D7" s="74" t="s">
+      <c r="D7" s="65" t="s">
         <v>134</v>
       </c>
-      <c r="E7" s="74">
+      <c r="E7" s="65">
         <v>5</v>
       </c>
-      <c r="F7" s="102">
+      <c r="F7" s="100">
         <v>267000</v>
       </c>
-      <c r="G7" s="97">
+      <c r="G7" s="95">
         <v>45017</v>
       </c>
-      <c r="H7" s="74" t="s">
+      <c r="H7" s="65" t="s">
         <v>163</v>
       </c>
-      <c r="I7" s="97">
+      <c r="I7" s="95">
         <v>45536</v>
       </c>
       <c r="N7" s="100"/>
@@ -6486,30 +6489,27 @@
       <c r="P7" s="100"/>
       <c r="Q7" s="100"/>
     </row>
-    <row r="8" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="104" t="s">
-        <v>136</v>
-      </c>
-      <c r="C8" s="70">
-        <v>3</v>
-      </c>
-      <c r="D8" s="70" t="s">
-        <v>137</v>
-      </c>
-      <c r="E8" s="70">
+    <row r="8" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="105"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="74" t="s">
+        <v>179</v>
+      </c>
+      <c r="E8" s="74">
         <v>6</v>
       </c>
-      <c r="F8" s="101">
-        <v>150000</v>
-      </c>
-      <c r="G8" s="96">
-        <v>45323</v>
-      </c>
-      <c r="H8" s="70" t="s">
+      <c r="F8" s="102">
+        <f>400*1300</f>
+        <v>520000</v>
+      </c>
+      <c r="G8" s="97">
+        <v>45017</v>
+      </c>
+      <c r="H8" s="74" t="s">
         <v>163</v>
       </c>
-      <c r="I8" s="96">
-        <v>45505</v>
+      <c r="I8" s="97">
+        <v>45536</v>
       </c>
       <c r="N8" s="100"/>
       <c r="O8" s="100"/>
@@ -6517,55 +6517,57 @@
       <c r="Q8" s="100"/>
     </row>
     <row r="9" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="98"/>
-      <c r="C9" s="65">
-        <v>18</v>
-      </c>
-      <c r="D9" s="65" t="s">
-        <v>138</v>
-      </c>
-      <c r="E9" s="65">
+      <c r="B9" s="104" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" s="70">
+        <v>3</v>
+      </c>
+      <c r="D9" s="70" t="s">
+        <v>137</v>
+      </c>
+      <c r="E9" s="70">
         <v>7</v>
       </c>
-      <c r="F9" s="100">
-        <v>163000</v>
-      </c>
-      <c r="G9" s="95">
+      <c r="F9" s="101">
+        <v>150000</v>
+      </c>
+      <c r="G9" s="96">
         <v>45323</v>
       </c>
-      <c r="H9" s="65" t="s">
+      <c r="H9" s="70" t="s">
         <v>163</v>
       </c>
-      <c r="I9" s="95">
-        <v>45689</v>
+      <c r="I9" s="96">
+        <v>45505</v>
       </c>
       <c r="N9" s="100"/>
       <c r="O9" s="100"/>
       <c r="P9" s="100"/>
       <c r="Q9" s="100"/>
     </row>
-    <row r="10" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="105"/>
-      <c r="C10" s="74">
-        <v>21</v>
-      </c>
-      <c r="D10" s="74" t="s">
-        <v>139</v>
-      </c>
-      <c r="E10" s="74">
+    <row r="10" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="98"/>
+      <c r="C10" s="65">
+        <v>18</v>
+      </c>
+      <c r="D10" s="65" t="s">
+        <v>138</v>
+      </c>
+      <c r="E10" s="65">
         <v>8</v>
       </c>
-      <c r="F10" s="102">
-        <v>133000</v>
-      </c>
-      <c r="G10" s="97">
-        <v>45231</v>
-      </c>
-      <c r="H10" s="74" t="s">
-        <v>162</v>
-      </c>
-      <c r="I10" s="97">
-        <v>45566</v>
+      <c r="F10" s="100">
+        <v>163000</v>
+      </c>
+      <c r="G10" s="95">
+        <v>45323</v>
+      </c>
+      <c r="H10" s="65" t="s">
+        <v>163</v>
+      </c>
+      <c r="I10" s="95">
+        <v>45689</v>
       </c>
       <c r="N10" s="100"/>
       <c r="O10" s="100"/>
@@ -6573,59 +6575,57 @@
       <c r="Q10" s="100"/>
     </row>
     <row r="11" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="98" t="s">
-        <v>154</v>
-      </c>
-      <c r="C11" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="65" t="s">
-        <v>155</v>
-      </c>
-      <c r="E11" s="65">
+      <c r="B11" s="105"/>
+      <c r="C11" s="74">
+        <v>21</v>
+      </c>
+      <c r="D11" s="74" t="s">
+        <v>139</v>
+      </c>
+      <c r="E11" s="74">
         <v>9</v>
       </c>
-      <c r="F11" s="103">
-        <v>130000</v>
-      </c>
-      <c r="G11" s="95">
-        <v>44986</v>
-      </c>
-      <c r="H11" s="65" t="s">
-        <v>163</v>
-      </c>
-      <c r="I11" s="95">
-        <v>45505</v>
+      <c r="F11" s="102">
+        <v>133000</v>
+      </c>
+      <c r="G11" s="97">
+        <v>45231</v>
+      </c>
+      <c r="H11" s="74" t="s">
+        <v>162</v>
+      </c>
+      <c r="I11" s="97">
+        <v>45566</v>
       </c>
       <c r="N11" s="100"/>
       <c r="O11" s="100"/>
       <c r="P11" s="100"/>
       <c r="Q11" s="100"/>
     </row>
-    <row r="12" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="70" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="70" t="s">
+    <row r="12" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="98" t="s">
+        <v>154</v>
+      </c>
+      <c r="C12" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="65" t="s">
         <v>155</v>
       </c>
-      <c r="E12" s="70">
+      <c r="E12" s="65">
         <v>10</v>
       </c>
-      <c r="F12" s="101">
-        <v>70000</v>
-      </c>
-      <c r="G12" s="96">
-        <v>44958</v>
-      </c>
-      <c r="H12" s="70" t="s">
+      <c r="F12" s="103">
+        <v>130000</v>
+      </c>
+      <c r="G12" s="95">
+        <v>44986</v>
+      </c>
+      <c r="H12" s="65" t="s">
         <v>163</v>
       </c>
-      <c r="I12" s="96">
-        <v>45444</v>
+      <c r="I12" s="95">
+        <v>45505</v>
       </c>
       <c r="N12" s="100"/>
       <c r="O12" s="100"/>
@@ -6633,27 +6633,29 @@
       <c r="Q12" s="100"/>
     </row>
     <row r="13" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="98"/>
-      <c r="C13" s="65" t="s">
-        <v>156</v>
-      </c>
-      <c r="D13" s="65" t="s">
+      <c r="B13" s="104" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="70" t="s">
         <v>155</v>
       </c>
-      <c r="E13" s="65">
+      <c r="E13" s="70">
         <v>11</v>
       </c>
-      <c r="F13" s="100">
-        <v>109000</v>
-      </c>
-      <c r="G13" s="95">
-        <v>45231</v>
-      </c>
-      <c r="H13" s="65" t="s">
+      <c r="F13" s="101">
+        <v>100000</v>
+      </c>
+      <c r="G13" s="96">
+        <v>44958</v>
+      </c>
+      <c r="H13" s="70" t="s">
         <v>163</v>
       </c>
-      <c r="I13" s="95">
-        <v>45597</v>
+      <c r="I13" s="96">
+        <v>45444</v>
       </c>
       <c r="N13" s="100"/>
       <c r="O13" s="100"/>
@@ -6663,7 +6665,7 @@
     <row r="14" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="98"/>
       <c r="C14" s="65" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D14" s="65" t="s">
         <v>155</v>
@@ -6672,16 +6674,16 @@
         <v>12</v>
       </c>
       <c r="F14" s="100">
-        <v>170000</v>
+        <v>300000</v>
       </c>
       <c r="G14" s="95">
-        <v>45383</v>
+        <v>45231</v>
       </c>
       <c r="H14" s="65" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I14" s="95">
-        <v>45748</v>
+        <v>45597</v>
       </c>
       <c r="N14" s="100"/>
       <c r="O14" s="100"/>
@@ -6691,7 +6693,7 @@
     <row r="15" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="98"/>
       <c r="C15" s="65" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D15" s="65" t="s">
         <v>155</v>
@@ -6700,43 +6702,43 @@
         <v>13</v>
       </c>
       <c r="F15" s="100">
-        <v>150000</v>
+        <v>170000</v>
       </c>
       <c r="G15" s="95">
-        <v>44986</v>
+        <v>45383</v>
       </c>
       <c r="H15" s="65" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I15" s="95">
-        <v>45505</v>
+        <v>45748</v>
       </c>
       <c r="N15" s="100"/>
       <c r="O15" s="100"/>
       <c r="P15" s="100"/>
       <c r="Q15" s="100"/>
     </row>
-    <row r="16" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="105"/>
-      <c r="C16" s="74" t="s">
-        <v>159</v>
-      </c>
-      <c r="D16" s="74" t="s">
+    <row r="16" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="98"/>
+      <c r="C16" s="65" t="s">
+        <v>158</v>
+      </c>
+      <c r="D16" s="65" t="s">
         <v>155</v>
       </c>
-      <c r="E16" s="74">
+      <c r="E16" s="65">
         <v>14</v>
       </c>
-      <c r="F16" s="102">
-        <v>134000</v>
-      </c>
-      <c r="G16" s="97">
-        <v>45323</v>
-      </c>
-      <c r="H16" s="74" t="s">
+      <c r="F16" s="100">
+        <v>150000</v>
+      </c>
+      <c r="G16" s="95">
+        <v>44986</v>
+      </c>
+      <c r="H16" s="65" t="s">
         <v>163</v>
       </c>
-      <c r="I16" s="97">
+      <c r="I16" s="95">
         <v>45505</v>
       </c>
       <c r="N16" s="100"/>
@@ -6745,94 +6747,122 @@
       <c r="Q16" s="100"/>
     </row>
     <row r="17" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="98" t="s">
-        <v>160</v>
-      </c>
-      <c r="C17" s="65" t="s">
-        <v>156</v>
-      </c>
-      <c r="D17" s="65" t="s">
-        <v>161</v>
-      </c>
-      <c r="E17" s="65">
+      <c r="B17" s="105"/>
+      <c r="C17" s="74" t="s">
+        <v>159</v>
+      </c>
+      <c r="D17" s="74" t="s">
+        <v>155</v>
+      </c>
+      <c r="E17" s="74">
         <v>15</v>
       </c>
-      <c r="F17" s="103">
-        <v>290000</v>
-      </c>
-      <c r="G17" s="95">
-        <v>45352</v>
-      </c>
-      <c r="I17" s="95"/>
+      <c r="F17" s="102">
+        <v>134000</v>
+      </c>
+      <c r="G17" s="97">
+        <v>45323</v>
+      </c>
+      <c r="H17" s="74" t="s">
+        <v>163</v>
+      </c>
+      <c r="I17" s="97">
+        <v>45505</v>
+      </c>
       <c r="N17" s="100"/>
       <c r="O17" s="100"/>
       <c r="P17" s="100"/>
       <c r="Q17" s="100"/>
     </row>
-    <row r="18" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="104" t="s">
+    <row r="18" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="98" t="s">
+        <v>160</v>
+      </c>
+      <c r="C18" s="65" t="s">
+        <v>156</v>
+      </c>
+      <c r="D18" s="65" t="s">
+        <v>161</v>
+      </c>
+      <c r="E18" s="65">
+        <v>16</v>
+      </c>
+      <c r="F18" s="103">
+        <v>290000</v>
+      </c>
+      <c r="G18" s="95">
+        <v>45352</v>
+      </c>
+      <c r="I18" s="95"/>
+      <c r="N18" s="100"/>
+      <c r="O18" s="100"/>
+      <c r="P18" s="100"/>
+      <c r="Q18" s="100"/>
+    </row>
+    <row r="19" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="104" t="s">
         <v>164</v>
       </c>
-      <c r="C18" s="70"/>
-      <c r="D18" s="70"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="101">
-        <f>SUM(F3:F17)</f>
-        <v>1995000</v>
-      </c>
-      <c r="G18" s="96"/>
-      <c r="H18" s="70"/>
-      <c r="I18" s="96"/>
-    </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B22" s="99" t="s">
-        <v>167</v>
-      </c>
-      <c r="C22" s="106">
-        <f>F7</f>
-        <v>267000</v>
-      </c>
+      <c r="C19" s="70"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="101">
+        <f>SUM(F3:F18)</f>
+        <v>2736000</v>
+      </c>
+      <c r="G19" s="96"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="96"/>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B23" s="99" t="s">
+        <v>167</v>
+      </c>
+      <c r="C23" s="106">
+        <f>F8</f>
+        <v>520000</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B24" s="99" t="s">
         <v>174</v>
       </c>
-      <c r="C23" s="106">
+      <c r="C24" s="106">
         <f>+Expensas!Y7</f>
         <v>81897.77</v>
       </c>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B24" s="99" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="106">
-        <v>783.84</v>
-      </c>
-    </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B25" s="99" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C25" s="106">
-        <v>15649.9</v>
+        <v>783.84</v>
       </c>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B26" s="99" t="s">
-        <v>175</v>
+        <v>14</v>
       </c>
       <c r="C26" s="106">
-        <v>21866.68</v>
+        <v>15649.9</v>
       </c>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B27" s="99" t="s">
+        <v>175</v>
+      </c>
+      <c r="C27" s="106">
+        <v>21866.68</v>
+      </c>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B28" s="99" t="s">
         <v>164</v>
       </c>
-      <c r="C27" s="107">
-        <f>SUM(C22:C26)</f>
-        <v>387198.19000000006</v>
+      <c r="C28" s="107">
+        <f>SUM(C23:C27)</f>
+        <v>640198.19000000006</v>
       </c>
     </row>
   </sheetData>
@@ -6981,12 +7011,12 @@
         <v>5</v>
       </c>
       <c r="F7" s="102">
-        <f>+Contratos!F7</f>
-        <v>267000</v>
+        <f>+Contratos!F8</f>
+        <v>520000</v>
       </c>
       <c r="G7" s="102">
         <f>+F7+Expensas!Z7</f>
-        <v>267000</v>
+        <v>520000</v>
       </c>
       <c r="I7" s="65">
         <v>11</v>
@@ -7006,7 +7036,7 @@
         <v>6</v>
       </c>
       <c r="F8" s="101">
-        <f>+Contratos!F8</f>
+        <f>+Contratos!F9</f>
         <v>150000</v>
       </c>
       <c r="G8" s="101">
@@ -7029,7 +7059,7 @@
         <v>7</v>
       </c>
       <c r="F9" s="100">
-        <f>+Contratos!F9</f>
+        <f>+Contratos!F10</f>
         <v>163000</v>
       </c>
       <c r="G9" s="100">
@@ -7049,7 +7079,7 @@
         <v>8</v>
       </c>
       <c r="F10" s="102">
-        <f>+Contratos!F10</f>
+        <f>+Contratos!F11</f>
         <v>133000</v>
       </c>
       <c r="G10" s="102">
@@ -7071,7 +7101,7 @@
         <v>9</v>
       </c>
       <c r="F11" s="103">
-        <f>+Contratos!F11</f>
+        <f>+Contratos!F12</f>
         <v>130000</v>
       </c>
       <c r="G11" s="95"/>
@@ -7090,8 +7120,8 @@
         <v>10</v>
       </c>
       <c r="F12" s="101">
-        <f>+Contratos!F12</f>
-        <v>70000</v>
+        <f>+Contratos!F13</f>
+        <v>100000</v>
       </c>
       <c r="G12" s="96"/>
     </row>
@@ -7121,7 +7151,7 @@
         <v>12</v>
       </c>
       <c r="F14" s="100">
-        <f>+Contratos!F14</f>
+        <f>+Contratos!F15</f>
         <v>170000</v>
       </c>
       <c r="G14" s="95"/>
@@ -7138,7 +7168,7 @@
         <v>13</v>
       </c>
       <c r="F15" s="100">
-        <f>+Contratos!F15</f>
+        <f>+Contratos!F16</f>
         <v>150000</v>
       </c>
       <c r="G15" s="95"/>
@@ -7155,7 +7185,7 @@
         <v>14</v>
       </c>
       <c r="F16" s="102">
-        <f>+Contratos!F16</f>
+        <f>+Contratos!F17</f>
         <v>134000</v>
       </c>
       <c r="G16" s="97"/>
@@ -7175,7 +7205,7 @@
         <v>15</v>
       </c>
       <c r="F17" s="103">
-        <f>+Contratos!F17</f>
+        <f>+Contratos!F18</f>
         <v>290000</v>
       </c>
       <c r="G17" s="95"/>
@@ -7189,7 +7219,7 @@
       <c r="E18" s="70"/>
       <c r="F18" s="101">
         <f>SUM(F3:F17)</f>
-        <v>1886000</v>
+        <v>2169000</v>
       </c>
       <c r="G18" s="96"/>
     </row>
@@ -7222,7 +7252,7 @@
       </c>
       <c r="B1" s="9">
         <f ca="1">TODAY()</f>
-        <v>45471</v>
+        <v>45482</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -7399,21 +7429,21 @@
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="113" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="110"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="115"/>
     </row>
     <row r="3" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="111" t="s">
+      <c r="B4" s="116" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="112"/>
+      <c r="C4" s="117"/>
       <c r="D4" s="20" t="s">
         <v>20</v>
       </c>
@@ -7454,12 +7484,12 @@
     </row>
     <row r="12" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="13" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="113" t="s">
+      <c r="A13" s="118" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="114"/>
-      <c r="C13" s="114"/>
-      <c r="D13" s="115"/>
+      <c r="B13" s="119"/>
+      <c r="C13" s="119"/>
+      <c r="D13" s="120"/>
     </row>
     <row r="14" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
@@ -7505,12 +7535,12 @@
     </row>
     <row r="18" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="19" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="116" t="s">
+      <c r="A19" s="121" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="117"/>
-      <c r="C19" s="117"/>
-      <c r="D19" s="118"/>
+      <c r="B19" s="122"/>
+      <c r="C19" s="122"/>
+      <c r="D19" s="123"/>
     </row>
     <row r="20" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
@@ -7571,12 +7601,12 @@
       <c r="D24" s="24"/>
     </row>
     <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="116" t="s">
+      <c r="A26" s="121" t="s">
         <v>100</v>
       </c>
-      <c r="B26" s="117"/>
-      <c r="C26" s="117"/>
-      <c r="D26" s="118"/>
+      <c r="B26" s="122"/>
+      <c r="C26" s="122"/>
+      <c r="D26" s="123"/>
     </row>
     <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="21" t="s">
@@ -7672,21 +7702,21 @@
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="113" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="110"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="115"/>
     </row>
     <row r="3" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="111" t="s">
+      <c r="B4" s="116" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="112"/>
+      <c r="C4" s="117"/>
       <c r="D4" s="20" t="s">
         <v>20</v>
       </c>
@@ -7729,12 +7759,12 @@
     </row>
     <row r="12" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="13" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="113" t="s">
+      <c r="A13" s="118" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="114"/>
-      <c r="C13" s="114"/>
-      <c r="D13" s="115"/>
+      <c r="B13" s="119"/>
+      <c r="C13" s="119"/>
+      <c r="D13" s="120"/>
     </row>
     <row r="14" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
@@ -7780,12 +7810,12 @@
     </row>
     <row r="18" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="19" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="116" t="s">
+      <c r="A19" s="121" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="117"/>
-      <c r="C19" s="117"/>
-      <c r="D19" s="118"/>
+      <c r="B19" s="122"/>
+      <c r="C19" s="122"/>
+      <c r="D19" s="123"/>
     </row>
     <row r="20" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
@@ -7842,12 +7872,12 @@
       <c r="D24" s="24"/>
     </row>
     <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="116" t="s">
+      <c r="A26" s="121" t="s">
         <v>100</v>
       </c>
-      <c r="B26" s="117"/>
-      <c r="C26" s="117"/>
-      <c r="D26" s="118"/>
+      <c r="B26" s="122"/>
+      <c r="C26" s="122"/>
+      <c r="D26" s="123"/>
     </row>
     <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="21" t="s">
@@ -7942,21 +7972,21 @@
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="113" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="110"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="115"/>
     </row>
     <row r="3" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="111" t="s">
+      <c r="B4" s="116" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="112"/>
+      <c r="C4" s="117"/>
       <c r="D4" s="20" t="s">
         <v>20</v>
       </c>
@@ -7997,12 +8027,12 @@
     </row>
     <row r="12" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="13" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="113" t="s">
+      <c r="A13" s="118" t="s">
         <v>99</v>
       </c>
-      <c r="B13" s="114"/>
-      <c r="C13" s="114"/>
-      <c r="D13" s="115"/>
+      <c r="B13" s="119"/>
+      <c r="C13" s="119"/>
+      <c r="D13" s="120"/>
       <c r="E13" s="18" t="s">
         <v>107</v>
       </c>
@@ -8047,12 +8077,12 @@
     </row>
     <row r="18" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="19" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="116" t="s">
+      <c r="A19" s="121" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="117"/>
-      <c r="C19" s="117"/>
-      <c r="D19" s="118"/>
+      <c r="B19" s="122"/>
+      <c r="C19" s="122"/>
+      <c r="D19" s="123"/>
     </row>
     <row r="20" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
@@ -8109,12 +8139,12 @@
       <c r="D24" s="24"/>
     </row>
     <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="116" t="s">
+      <c r="A26" s="121" t="s">
         <v>100</v>
       </c>
-      <c r="B26" s="117"/>
-      <c r="C26" s="117"/>
-      <c r="D26" s="118"/>
+      <c r="B26" s="122"/>
+      <c r="C26" s="122"/>
+      <c r="D26" s="123"/>
     </row>
     <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="21" t="s">
@@ -8232,11 +8262,11 @@
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="113" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="110"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="115"/>
       <c r="F2" s="56" t="s">
         <v>125</v>
       </c>
@@ -8260,10 +8290,10 @@
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="111" t="s">
+      <c r="B4" s="116" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="112"/>
+      <c r="C4" s="117"/>
       <c r="D4" s="20" t="s">
         <v>20</v>
       </c>
@@ -8366,12 +8396,12 @@
       <c r="I12" s="45"/>
     </row>
     <row r="13" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="113" t="s">
+      <c r="A13" s="118" t="s">
         <v>99</v>
       </c>
-      <c r="B13" s="114"/>
-      <c r="C13" s="114"/>
-      <c r="D13" s="115"/>
+      <c r="B13" s="119"/>
+      <c r="C13" s="119"/>
+      <c r="D13" s="120"/>
       <c r="F13" s="46"/>
       <c r="G13" s="45"/>
       <c r="H13" s="45"/>
@@ -8439,12 +8469,12 @@
       <c r="I18" s="45"/>
     </row>
     <row r="19" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="116" t="s">
+      <c r="A19" s="121" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="117"/>
-      <c r="C19" s="117"/>
-      <c r="D19" s="118"/>
+      <c r="B19" s="122"/>
+      <c r="C19" s="122"/>
+      <c r="D19" s="123"/>
       <c r="F19" s="46"/>
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
@@ -8525,12 +8555,12 @@
       <c r="F25" s="46"/>
     </row>
     <row r="26" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="116" t="s">
+      <c r="A26" s="121" t="s">
         <v>100</v>
       </c>
-      <c r="B26" s="117"/>
-      <c r="C26" s="117"/>
-      <c r="D26" s="118"/>
+      <c r="B26" s="122"/>
+      <c r="C26" s="122"/>
+      <c r="D26" s="123"/>
       <c r="F26" s="46"/>
     </row>
     <row r="27" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -8636,11 +8666,11 @@
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="113" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="110"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="115"/>
       <c r="F2" s="46"/>
       <c r="G2" s="45"/>
       <c r="H2" s="45"/>
@@ -8656,10 +8686,10 @@
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="111" t="s">
+      <c r="B4" s="116" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="112"/>
+      <c r="C4" s="117"/>
       <c r="D4" s="20" t="s">
         <v>20</v>
       </c>
@@ -8739,12 +8769,12 @@
       <c r="I12" s="45"/>
     </row>
     <row r="13" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="113" t="s">
+      <c r="A13" s="118" t="s">
         <v>99</v>
       </c>
-      <c r="B13" s="114"/>
-      <c r="C13" s="114"/>
-      <c r="D13" s="115"/>
+      <c r="B13" s="119"/>
+      <c r="C13" s="119"/>
+      <c r="D13" s="120"/>
       <c r="F13" s="46"/>
       <c r="G13" s="45"/>
       <c r="H13" s="45"/>
@@ -8806,12 +8836,12 @@
       <c r="I18" s="45"/>
     </row>
     <row r="19" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="116" t="s">
+      <c r="A19" s="121" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="117"/>
-      <c r="C19" s="117"/>
-      <c r="D19" s="118"/>
+      <c r="B19" s="122"/>
+      <c r="C19" s="122"/>
+      <c r="D19" s="123"/>
       <c r="F19" s="46"/>
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
@@ -8892,12 +8922,12 @@
       <c r="F25" s="46"/>
     </row>
     <row r="26" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="116" t="s">
+      <c r="A26" s="121" t="s">
         <v>100</v>
       </c>
-      <c r="B26" s="117"/>
-      <c r="C26" s="117"/>
-      <c r="D26" s="118"/>
+      <c r="B26" s="122"/>
+      <c r="C26" s="122"/>
+      <c r="D26" s="123"/>
       <c r="F26" s="46"/>
     </row>
     <row r="27" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -8995,21 +9025,21 @@
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="113" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="110"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="115"/>
     </row>
     <row r="3" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="111" t="s">
+      <c r="B4" s="116" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="112"/>
+      <c r="C4" s="117"/>
       <c r="D4" s="20" t="s">
         <v>20</v>
       </c>
@@ -9050,12 +9080,12 @@
     </row>
     <row r="12" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="13" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="113" t="s">
+      <c r="A13" s="118" t="s">
         <v>99</v>
       </c>
-      <c r="B13" s="114"/>
-      <c r="C13" s="114"/>
-      <c r="D13" s="115"/>
+      <c r="B13" s="119"/>
+      <c r="C13" s="119"/>
+      <c r="D13" s="120"/>
     </row>
     <row r="14" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
@@ -9095,12 +9125,12 @@
     </row>
     <row r="18" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="19" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="116" t="s">
+      <c r="A19" s="121" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="117"/>
-      <c r="C19" s="117"/>
-      <c r="D19" s="118"/>
+      <c r="B19" s="122"/>
+      <c r="C19" s="122"/>
+      <c r="D19" s="123"/>
     </row>
     <row r="20" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
@@ -9157,12 +9187,12 @@
       <c r="D24" s="24"/>
     </row>
     <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="116" t="s">
+      <c r="A26" s="121" t="s">
         <v>100</v>
       </c>
-      <c r="B26" s="117"/>
-      <c r="C26" s="117"/>
-      <c r="D26" s="118"/>
+      <c r="B26" s="122"/>
+      <c r="C26" s="122"/>
+      <c r="D26" s="123"/>
     </row>
     <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="21" t="s">
@@ -9257,11 +9287,11 @@
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="113" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="110"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="115"/>
       <c r="F2" s="46"/>
       <c r="G2" s="45"/>
       <c r="H2" s="45"/>
@@ -9275,10 +9305,10 @@
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="111" t="s">
+      <c r="B4" s="116" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="112"/>
+      <c r="C4" s="117"/>
       <c r="D4" s="20" t="s">
         <v>20</v>
       </c>
@@ -9357,12 +9387,12 @@
       <c r="H12" s="45"/>
     </row>
     <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="113" t="s">
+      <c r="A13" s="118" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="114"/>
-      <c r="C13" s="114"/>
-      <c r="D13" s="115"/>
+      <c r="B13" s="119"/>
+      <c r="C13" s="119"/>
+      <c r="D13" s="120"/>
       <c r="F13" s="46"/>
       <c r="G13" s="45"/>
       <c r="H13" s="45"/>
@@ -9425,12 +9455,12 @@
       <c r="H18" s="45"/>
     </row>
     <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="116" t="s">
+      <c r="A19" s="121" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="117"/>
-      <c r="C19" s="117"/>
-      <c r="D19" s="118"/>
+      <c r="B19" s="122"/>
+      <c r="C19" s="122"/>
+      <c r="D19" s="123"/>
       <c r="F19" s="46"/>
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>

--- a/PagoExpensas/AlquileresApp-P561972.xlsx
+++ b/PagoExpensas/AlquileresApp-P561972.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eduardo/Documents/GitHub/Personal/PagoExpensas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ypf-my.sharepoint.com/personal/ry09678_grupo_ypf_com/Documents/Documentos/GitHub/Personal/PagoExpensas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E34103A-F72A-0540-8E76-07CC9E84A1DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{4E34103A-F72A-0540-8E76-07CC9E84A1DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{78307CD9-96FD-45E8-87F9-CA1E38575821}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="535" firstSheet="10" activeTab="16" xr2:uid="{588A6F5C-727E-C144-960C-2E5EA3C9F402}"/>
+    <workbookView xWindow="-15420" yWindow="-15690" windowWidth="21060" windowHeight="14130" tabRatio="535" firstSheet="10" activeTab="14" xr2:uid="{588A6F5C-727E-C144-960C-2E5EA3C9F402}"/>
   </bookViews>
   <sheets>
     <sheet name="Ingresos" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="180">
   <si>
     <t>Fotographos</t>
   </si>
@@ -611,10 +611,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;\ * #,##0.00_);_(&quot;$&quot;\ * \(#,##0.00\);_(&quot;$&quot;\ * &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="mmm\ yy"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;\ * #,##0.00_);_(&quot;$&quot;\ * \(#,##0.00\);_(&quot;$&quot;\ * &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="mmm\ yy"/>
   </numFmts>
   <fonts count="16" x14ac:knownFonts="1">
     <font>
@@ -1078,25 +1078,25 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1108,7 +1108,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1211,28 +1211,28 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="12" fillId="5" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="12" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="12" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="12" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1323,7 +1323,7 @@
     <xf numFmtId="4" fontId="0" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1341,16 +1341,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1359,8 +1359,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1418,8 +1418,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="3" builtinId="4"/>
+    <cellStyle name="Millares" xfId="1" builtinId="3"/>
+    <cellStyle name="Moneda" xfId="3" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{4B86B870-29B4-5049-930D-B78C3D3C73DA}"/>
   </cellStyles>
@@ -1496,7 +1496,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -1801,21 +1801,21 @@
       <selection pane="bottomRight" activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="11.83203125" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" customWidth="1"/>
-    <col min="12" max="12" width="13.83203125" customWidth="1"/>
-    <col min="13" max="13" width="13.1640625" customWidth="1"/>
-    <col min="14" max="14" width="12.33203125" customWidth="1"/>
-    <col min="15" max="15" width="12.1640625" customWidth="1"/>
-    <col min="16" max="16" width="16.33203125" customWidth="1"/>
-    <col min="17" max="17" width="19.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.875" customWidth="1"/>
+    <col min="5" max="5" width="12.375" customWidth="1"/>
+    <col min="6" max="6" width="11.875" customWidth="1"/>
+    <col min="7" max="7" width="12.375" customWidth="1"/>
+    <col min="12" max="12" width="13.875" customWidth="1"/>
+    <col min="13" max="13" width="13.125" customWidth="1"/>
+    <col min="14" max="14" width="12.375" customWidth="1"/>
+    <col min="15" max="15" width="12.125" customWidth="1"/>
+    <col min="16" max="16" width="16.375" customWidth="1"/>
+    <col min="17" max="17" width="19.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -1829,7 +1829,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D2" s="3">
         <v>1</v>
       </c>
@@ -1869,7 +1869,7 @@
       </c>
       <c r="Q2" s="3"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
@@ -1911,7 +1911,7 @@
       </c>
       <c r="Q3" s="3"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f t="shared" ref="A4:A7" si="0">_xlfn.CONCAT(YEAR(B4),MONTH(B4))</f>
         <v>20203</v>
@@ -1951,7 +1951,7 @@
         <v>17000</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>20204</v>
@@ -1991,7 +1991,7 @@
         <v>17000</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>20205</v>
@@ -2031,7 +2031,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>20206</v>
@@ -2071,7 +2071,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>_xlfn.CONCAT(YEAR(B8),MONTH(B8))</f>
         <v>20207</v>
@@ -2115,7 +2115,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f t="shared" ref="A9:A38" si="2">_xlfn.CONCAT(YEAR(B9),MONTH(B9))</f>
         <v>20208</v>
@@ -2159,7 +2159,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f t="shared" si="2"/>
         <v>20209</v>
@@ -2203,7 +2203,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f t="shared" si="2"/>
         <v>202010</v>
@@ -2247,7 +2247,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f t="shared" si="2"/>
         <v>202011</v>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="O12" s="47"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f t="shared" si="2"/>
         <v>202012</v>
@@ -2336,7 +2336,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f t="shared" si="2"/>
         <v>20211</v>
@@ -2380,7 +2380,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f t="shared" si="2"/>
         <v>20212</v>
@@ -2425,7 +2425,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f t="shared" si="2"/>
         <v>20213</v>
@@ -2470,7 +2470,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f t="shared" si="2"/>
         <v>20214</v>
@@ -2515,7 +2515,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f t="shared" si="2"/>
         <v>20215</v>
@@ -2560,7 +2560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f t="shared" si="2"/>
         <v>20216</v>
@@ -2610,7 +2610,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f t="shared" si="2"/>
         <v>20217</v>
@@ -2660,7 +2660,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="48" t="str">
         <f t="shared" si="2"/>
         <v>20218</v>
@@ -2708,7 +2708,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="22" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="48" t="str">
         <f t="shared" si="2"/>
         <v>20219</v>
@@ -2756,7 +2756,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="48" t="str">
         <f t="shared" si="2"/>
         <v>202110</v>
@@ -2802,7 +2802,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="24" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="48" t="str">
         <f t="shared" si="2"/>
         <v>202111</v>
@@ -2848,7 +2848,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="25" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="48" t="str">
         <f t="shared" si="2"/>
         <v>202112</v>
@@ -2894,7 +2894,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="26" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="48" t="str">
         <f t="shared" si="2"/>
         <v>20221</v>
@@ -2938,7 +2938,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="27" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="48" t="str">
         <f t="shared" si="2"/>
         <v>20222</v>
@@ -2982,7 +2982,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f t="shared" si="2"/>
         <v>20223</v>
@@ -3027,7 +3027,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f t="shared" si="2"/>
         <v>20224</v>
@@ -3072,7 +3072,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <f t="shared" si="2"/>
         <v>20225</v>
@@ -3117,7 +3117,7 @@
         <v>39600</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
         <f t="shared" si="2"/>
         <v>20226</v>
@@ -3161,7 +3161,7 @@
         <v>39600</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
         <f t="shared" si="2"/>
         <v>20227</v>
@@ -3205,7 +3205,7 @@
         <v>39600</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
         <f t="shared" si="2"/>
         <v>20228</v>
@@ -3250,7 +3250,7 @@
         <v>39600</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
         <f t="shared" si="2"/>
         <v>20229</v>
@@ -3295,7 +3295,7 @@
         <v>39600</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
         <f t="shared" si="2"/>
         <v>202210</v>
@@ -3328,7 +3328,7 @@
         <v>75870.046400000007</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
         <f t="shared" si="2"/>
         <v>202211</v>
@@ -3358,7 +3358,7 @@
         <v>80665.865000000005</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
         <f t="shared" si="2"/>
         <v>202212</v>
@@ -3378,7 +3378,7 @@
         <v>24700</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
         <f t="shared" si="2"/>
         <v>20231</v>
@@ -3398,7 +3398,7 @@
         <v>24700</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
         <f t="shared" ref="A39:A52" si="6">_xlfn.CONCAT(YEAR(B39),MONTH(B39))</f>
         <v>20232</v>
@@ -3416,7 +3416,7 @@
         <v>24700</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
         <f t="shared" si="6"/>
         <v>20233</v>
@@ -3434,7 +3434,7 @@
         <v>27200</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="str">
         <f t="shared" si="6"/>
         <v>20234</v>
@@ -3450,7 +3450,7 @@
         <v>27200</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
         <f t="shared" si="6"/>
         <v>20235</v>
@@ -3466,7 +3466,7 @@
         <v>27200</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
         <f t="shared" si="6"/>
         <v>20236</v>
@@ -3482,7 +3482,7 @@
         <v>27200</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
         <f t="shared" si="6"/>
         <v>20237</v>
@@ -3498,7 +3498,7 @@
         <v>27200</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
         <f t="shared" si="6"/>
         <v>20238</v>
@@ -3514,7 +3514,7 @@
         <v>27200</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
         <f t="shared" si="6"/>
         <v>20239</v>
@@ -3530,7 +3530,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
         <f t="shared" si="6"/>
         <v>202310</v>
@@ -3546,7 +3546,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
         <f t="shared" si="6"/>
         <v>202311</v>
@@ -3562,7 +3562,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
         <f t="shared" si="6"/>
         <v>202312</v>
@@ -3578,7 +3578,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
         <f t="shared" si="6"/>
         <v>20241</v>
@@ -3594,7 +3594,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="str">
         <f t="shared" si="6"/>
         <v>20242</v>
@@ -3610,7 +3610,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
         <f t="shared" si="6"/>
         <v>20243</v>
@@ -3639,22 +3639,22 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.1640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" style="31" customWidth="1"/>
-    <col min="6" max="6" width="13.1640625" style="45" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" style="45" customWidth="1"/>
+    <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="6.125" style="31" customWidth="1"/>
+    <col min="6" max="6" width="13.125" style="45" customWidth="1"/>
+    <col min="7" max="7" width="15.375" style="45" customWidth="1"/>
     <col min="8" max="8" width="17.5" style="45" customWidth="1"/>
-    <col min="9" max="9" width="15.1640625" style="31" customWidth="1"/>
-    <col min="10" max="10" width="16.1640625" style="31" customWidth="1"/>
-    <col min="11" max="16384" width="42.1640625" style="31"/>
+    <col min="9" max="9" width="15.125" style="31" customWidth="1"/>
+    <col min="10" max="10" width="16.125" style="31" customWidth="1"/>
+    <col min="11" max="16384" width="42.125" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
@@ -3667,12 +3667,12 @@
       <c r="G2" s="45"/>
       <c r="H2" s="45"/>
     </row>
-    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F3" s="46"/>
       <c r="G3" s="45"/>
       <c r="H3" s="45"/>
     </row>
-    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
@@ -3687,12 +3687,12 @@
       <c r="G4" s="45"/>
       <c r="H4" s="45"/>
     </row>
-    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F5" s="46"/>
       <c r="G5" s="45"/>
       <c r="H5" s="45"/>
     </row>
-    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
@@ -3705,7 +3705,7 @@
       <c r="G6" s="45"/>
       <c r="H6" s="45"/>
     </row>
-    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
@@ -3714,7 +3714,7 @@
       <c r="G7" s="45"/>
       <c r="H7" s="45"/>
     </row>
-    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="26"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
@@ -3723,12 +3723,12 @@
       <c r="G8" s="45"/>
       <c r="H8" s="45"/>
     </row>
-    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F9" s="46"/>
       <c r="G9" s="45"/>
       <c r="H9" s="45"/>
     </row>
-    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
@@ -3737,7 +3737,7 @@
       <c r="G10" s="45"/>
       <c r="H10" s="45"/>
     </row>
-    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
@@ -3746,12 +3746,12 @@
       <c r="G11" s="45"/>
       <c r="H11" s="45"/>
     </row>
-    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F12" s="46"/>
       <c r="G12" s="45"/>
       <c r="H12" s="45"/>
     </row>
-    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="118" t="s">
         <v>26</v>
       </c>
@@ -3762,7 +3762,7 @@
       <c r="G13" s="45"/>
       <c r="H13" s="45"/>
     </row>
-    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
@@ -3779,7 +3779,7 @@
       <c r="G14" s="45"/>
       <c r="H14" s="45"/>
     </row>
-    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -3792,7 +3792,7 @@
       <c r="G15" s="45"/>
       <c r="H15" s="45"/>
     </row>
-    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
@@ -3803,7 +3803,7 @@
       <c r="G16" s="45"/>
       <c r="H16" s="45"/>
     </row>
-    <row r="17" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="29" t="s">
         <v>33</v>
       </c>
@@ -3814,12 +3814,12 @@
       <c r="D17" s="24"/>
       <c r="F17" s="46"/>
     </row>
-    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F18" s="46"/>
       <c r="G18" s="45"/>
       <c r="H18" s="45"/>
     </row>
-    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="121" t="s">
         <v>14</v>
       </c>
@@ -3830,7 +3830,7 @@
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
     </row>
-    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>34</v>
       </c>
@@ -3847,7 +3847,7 @@
       <c r="G20" s="45"/>
       <c r="H20" s="45"/>
     </row>
-    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>29</v>
       </c>
@@ -3858,7 +3858,7 @@
       <c r="G21" s="45"/>
       <c r="H21" s="45"/>
     </row>
-    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26"/>
       <c r="B22" s="34"/>
       <c r="C22" s="22"/>
@@ -3867,7 +3867,7 @@
       <c r="G22" s="45"/>
       <c r="H22" s="45"/>
     </row>
-    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>31</v>
       </c>
@@ -3878,7 +3878,7 @@
       <c r="G23" s="45"/>
       <c r="H23" s="45"/>
     </row>
-    <row r="24" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="29" t="s">
         <v>33</v>
       </c>
@@ -3889,22 +3889,22 @@
       <c r="D24" s="24"/>
       <c r="F24" s="46"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F25" s="46"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F26" s="46"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F27" s="46"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F28" s="46"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F29" s="46"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F30" s="46"/>
     </row>
   </sheetData>
@@ -3931,19 +3931,19 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.1640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" style="31" customWidth="1"/>
-    <col min="6" max="7" width="15.33203125" style="45" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="45" customWidth="1"/>
-    <col min="9" max="16384" width="42.1640625" style="31"/>
+    <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="6.125" style="31" customWidth="1"/>
+    <col min="6" max="7" width="15.375" style="45" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="45" customWidth="1"/>
+    <col min="9" max="16384" width="42.125" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
@@ -3956,12 +3956,12 @@
       <c r="G2" s="45"/>
       <c r="H2" s="45"/>
     </row>
-    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F3" s="46"/>
       <c r="G3" s="45"/>
       <c r="H3" s="45"/>
     </row>
-    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
@@ -3976,12 +3976,12 @@
       <c r="G4" s="45"/>
       <c r="H4" s="45"/>
     </row>
-    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F5" s="46"/>
       <c r="G5" s="45"/>
       <c r="H5" s="45"/>
     </row>
-    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
@@ -3994,7 +3994,7 @@
       <c r="G6" s="45"/>
       <c r="H6" s="45"/>
     </row>
-    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
@@ -4003,7 +4003,7 @@
       <c r="G7" s="45"/>
       <c r="H7" s="45"/>
     </row>
-    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="26"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
@@ -4012,12 +4012,12 @@
       <c r="G8" s="45"/>
       <c r="H8" s="45"/>
     </row>
-    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F9" s="46"/>
       <c r="G9" s="45"/>
       <c r="H9" s="45"/>
     </row>
-    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
@@ -4028,7 +4028,7 @@
       <c r="G10" s="45"/>
       <c r="H10" s="45"/>
     </row>
-    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
@@ -4039,12 +4039,12 @@
       <c r="G11" s="45"/>
       <c r="H11" s="45"/>
     </row>
-    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F12" s="46"/>
       <c r="G12" s="45"/>
       <c r="H12" s="45"/>
     </row>
-    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="118" t="s">
         <v>26</v>
       </c>
@@ -4055,7 +4055,7 @@
       <c r="G13" s="45"/>
       <c r="H13" s="45"/>
     </row>
-    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
@@ -4072,7 +4072,7 @@
       <c r="G14" s="45"/>
       <c r="H14" s="45"/>
     </row>
-    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -4083,7 +4083,7 @@
       <c r="G15" s="45"/>
       <c r="H15" s="45"/>
     </row>
-    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
@@ -4094,7 +4094,7 @@
       <c r="G16" s="45"/>
       <c r="H16" s="45"/>
     </row>
-    <row r="17" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="29" t="s">
         <v>46</v>
       </c>
@@ -4102,12 +4102,12 @@
       <c r="C17" s="23"/>
       <c r="D17" s="24"/>
     </row>
-    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F18" s="45"/>
       <c r="G18" s="45"/>
       <c r="H18" s="45"/>
     </row>
-    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="121" t="s">
         <v>47</v>
       </c>
@@ -4118,7 +4118,7 @@
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
     </row>
-    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>34</v>
       </c>
@@ -4135,7 +4135,7 @@
       <c r="G20" s="45"/>
       <c r="H20" s="45"/>
     </row>
-    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>29</v>
       </c>
@@ -4152,7 +4152,7 @@
       <c r="G21" s="45"/>
       <c r="H21" s="45"/>
     </row>
-    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26"/>
       <c r="B22" s="32" t="s">
         <v>49</v>
@@ -4163,7 +4163,7 @@
       <c r="G22" s="45"/>
       <c r="H22" s="45"/>
     </row>
-    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>31</v>
       </c>
@@ -4174,7 +4174,7 @@
       <c r="G23" s="45"/>
       <c r="H23" s="45"/>
     </row>
-    <row r="24" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="29" t="s">
         <v>46</v>
       </c>
@@ -4186,7 +4186,7 @@
       </c>
       <c r="D24" s="24"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="31">
         <v>3520</v>
       </c>
@@ -4198,7 +4198,7 @@
         <v>54367</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="31">
         <v>2847</v>
       </c>
@@ -4206,7 +4206,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="31">
         <v>16000</v>
       </c>
@@ -4214,7 +4214,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="31">
         <v>16000</v>
       </c>
@@ -4222,7 +4222,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="31">
         <v>16000</v>
       </c>
@@ -4254,19 +4254,19 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.1640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="18.83203125" style="31" customWidth="1"/>
+    <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="18.875" style="31" customWidth="1"/>
     <col min="4" max="4" width="30" style="31" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" style="31" customWidth="1"/>
-    <col min="6" max="7" width="15.33203125" style="45" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="45" customWidth="1"/>
-    <col min="9" max="16384" width="42.1640625" style="31"/>
+    <col min="5" max="5" width="6.125" style="31" customWidth="1"/>
+    <col min="6" max="7" width="15.375" style="45" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="45" customWidth="1"/>
+    <col min="9" max="16384" width="42.125" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
@@ -4279,12 +4279,12 @@
       <c r="G2" s="45"/>
       <c r="H2" s="45"/>
     </row>
-    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F3" s="46"/>
       <c r="G3" s="45"/>
       <c r="H3" s="45"/>
     </row>
-    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
@@ -4299,12 +4299,12 @@
       <c r="G4" s="45"/>
       <c r="H4" s="45"/>
     </row>
-    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F5" s="46"/>
       <c r="G5" s="45"/>
       <c r="H5" s="45"/>
     </row>
-    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
@@ -4317,7 +4317,7 @@
       <c r="G6" s="45"/>
       <c r="H6" s="45"/>
     </row>
-    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="22">
         <v>2975176337</v>
@@ -4328,7 +4328,7 @@
       <c r="G7" s="45"/>
       <c r="H7" s="45"/>
     </row>
-    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="26"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
@@ -4337,12 +4337,12 @@
       <c r="G8" s="45"/>
       <c r="H8" s="45"/>
     </row>
-    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F9" s="46"/>
       <c r="G9" s="45"/>
       <c r="H9" s="45"/>
     </row>
-    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
@@ -4356,7 +4356,7 @@
       <c r="G10" s="45"/>
       <c r="H10" s="45"/>
     </row>
-    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
@@ -4370,12 +4370,12 @@
       <c r="G11" s="45"/>
       <c r="H11" s="45"/>
     </row>
-    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F12" s="46"/>
       <c r="G12" s="45"/>
       <c r="H12" s="45"/>
     </row>
-    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="118" t="s">
         <v>129</v>
       </c>
@@ -4386,7 +4386,7 @@
       <c r="G13" s="45"/>
       <c r="H13" s="45"/>
     </row>
-    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
@@ -4403,7 +4403,7 @@
       <c r="G14" s="45"/>
       <c r="H14" s="45"/>
     </row>
-    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -4414,7 +4414,7 @@
       <c r="G15" s="45"/>
       <c r="H15" s="45"/>
     </row>
-    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
@@ -4425,7 +4425,7 @@
       <c r="G16" s="45"/>
       <c r="H16" s="45"/>
     </row>
-    <row r="17" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="29" t="s">
         <v>33</v>
       </c>
@@ -4436,12 +4436,12 @@
       <c r="D17" s="24"/>
       <c r="F17" s="46"/>
     </row>
-    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F18" s="46"/>
       <c r="G18" s="45"/>
       <c r="H18" s="45"/>
     </row>
-    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="121" t="s">
         <v>54</v>
       </c>
@@ -4452,7 +4452,7 @@
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
     </row>
-    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>34</v>
       </c>
@@ -4469,7 +4469,7 @@
       <c r="G20" s="45"/>
       <c r="H20" s="45"/>
     </row>
-    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>29</v>
       </c>
@@ -4486,7 +4486,7 @@
       <c r="G21" s="45"/>
       <c r="H21" s="45"/>
     </row>
-    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26"/>
       <c r="B22" s="32" t="s">
         <v>56</v>
@@ -4497,7 +4497,7 @@
       <c r="G22" s="45"/>
       <c r="H22" s="45"/>
     </row>
-    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>31</v>
       </c>
@@ -4510,7 +4510,7 @@
       <c r="G23" s="45"/>
       <c r="H23" s="45"/>
     </row>
-    <row r="24" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="29" t="s">
         <v>33</v>
       </c>
@@ -4523,13 +4523,13 @@
       <c r="D24" s="24"/>
       <c r="F24" s="46"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F25" s="46"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F26" s="46"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F27" s="46"/>
     </row>
   </sheetData>
@@ -4557,19 +4557,19 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.1640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" style="31" customWidth="1"/>
-    <col min="6" max="7" width="15.33203125" style="45" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="45" customWidth="1"/>
-    <col min="9" max="16384" width="42.1640625" style="31"/>
+    <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="6.125" style="31" customWidth="1"/>
+    <col min="6" max="7" width="15.375" style="45" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="45" customWidth="1"/>
+    <col min="9" max="16384" width="42.125" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
@@ -4582,12 +4582,12 @@
       <c r="G2" s="45"/>
       <c r="H2" s="45"/>
     </row>
-    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F3" s="46"/>
       <c r="G3" s="45"/>
       <c r="H3" s="45"/>
     </row>
-    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
@@ -4602,12 +4602,12 @@
       <c r="G4" s="45"/>
       <c r="H4" s="45"/>
     </row>
-    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F5" s="46"/>
       <c r="G5" s="45"/>
       <c r="H5" s="45"/>
     </row>
-    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
@@ -4618,7 +4618,7 @@
       <c r="G6" s="45"/>
       <c r="H6" s="45"/>
     </row>
-    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
@@ -4627,7 +4627,7 @@
       <c r="G7" s="45"/>
       <c r="H7" s="45"/>
     </row>
-    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="26"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
@@ -4636,12 +4636,12 @@
       <c r="G8" s="45"/>
       <c r="H8" s="45"/>
     </row>
-    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F9" s="46"/>
       <c r="G9" s="45"/>
       <c r="H9" s="45"/>
     </row>
-    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
@@ -4650,7 +4650,7 @@
       <c r="G10" s="45"/>
       <c r="H10" s="45"/>
     </row>
-    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
@@ -4659,12 +4659,12 @@
       <c r="G11" s="45"/>
       <c r="H11" s="45"/>
     </row>
-    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F12" s="46"/>
       <c r="G12" s="45"/>
       <c r="H12" s="45"/>
     </row>
-    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="118" t="s">
         <v>26</v>
       </c>
@@ -4675,7 +4675,7 @@
       <c r="G13" s="45"/>
       <c r="H13" s="45"/>
     </row>
-    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
@@ -4692,7 +4692,7 @@
       <c r="G14" s="45"/>
       <c r="H14" s="45"/>
     </row>
-    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -4703,7 +4703,7 @@
       <c r="G15" s="45"/>
       <c r="H15" s="45"/>
     </row>
-    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
@@ -4716,7 +4716,7 @@
       <c r="G16" s="45"/>
       <c r="H16" s="45"/>
     </row>
-    <row r="17" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="29" t="s">
         <v>33</v>
       </c>
@@ -4726,12 +4726,12 @@
       <c r="C17" s="23"/>
       <c r="D17" s="24"/>
     </row>
-    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F18" s="45"/>
       <c r="G18" s="45"/>
       <c r="H18" s="45"/>
     </row>
-    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="121" t="s">
         <v>14</v>
       </c>
@@ -4742,7 +4742,7 @@
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
     </row>
-    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>34</v>
       </c>
@@ -4759,7 +4759,7 @@
       <c r="G20" s="45"/>
       <c r="H20" s="45"/>
     </row>
-    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>29</v>
       </c>
@@ -4776,7 +4776,7 @@
       <c r="G21" s="45"/>
       <c r="H21" s="45"/>
     </row>
-    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26"/>
       <c r="B22" s="32" t="s">
         <v>64</v>
@@ -4787,7 +4787,7 @@
       <c r="G22" s="45"/>
       <c r="H22" s="45"/>
     </row>
-    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>31</v>
       </c>
@@ -4800,7 +4800,7 @@
       <c r="G23" s="45"/>
       <c r="H23" s="45"/>
     </row>
-    <row r="24" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="29" t="s">
         <v>33</v>
       </c>
@@ -4837,19 +4837,19 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.1640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" style="31" customWidth="1"/>
-    <col min="6" max="7" width="15.33203125" style="45" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="45" customWidth="1"/>
-    <col min="9" max="16384" width="42.1640625" style="31"/>
+    <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="6.125" style="31" customWidth="1"/>
+    <col min="6" max="7" width="15.375" style="45" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="45" customWidth="1"/>
+    <col min="9" max="16384" width="42.125" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
@@ -4862,12 +4862,12 @@
       <c r="G2" s="45"/>
       <c r="H2" s="45"/>
     </row>
-    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F3" s="46"/>
       <c r="G3" s="45"/>
       <c r="H3" s="45"/>
     </row>
-    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
@@ -4882,12 +4882,12 @@
       <c r="G4" s="45"/>
       <c r="H4" s="45"/>
     </row>
-    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F5" s="46"/>
       <c r="G5" s="45"/>
       <c r="H5" s="45"/>
     </row>
-    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
@@ -4900,7 +4900,7 @@
       <c r="G6" s="45"/>
       <c r="H6" s="45"/>
     </row>
-    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
@@ -4909,7 +4909,7 @@
       <c r="G7" s="45"/>
       <c r="H7" s="45"/>
     </row>
-    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="26"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
@@ -4918,12 +4918,12 @@
       <c r="G8" s="45"/>
       <c r="H8" s="45"/>
     </row>
-    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F9" s="46"/>
       <c r="G9" s="45"/>
       <c r="H9" s="45"/>
     </row>
-    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
@@ -4934,7 +4934,7 @@
       <c r="G10" s="45"/>
       <c r="H10" s="45"/>
     </row>
-    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
@@ -4945,12 +4945,12 @@
       <c r="G11" s="45"/>
       <c r="H11" s="45"/>
     </row>
-    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F12" s="46"/>
       <c r="G12" s="45"/>
       <c r="H12" s="45"/>
     </row>
-    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="118" t="s">
         <v>26</v>
       </c>
@@ -4961,7 +4961,7 @@
       <c r="G13" s="45"/>
       <c r="H13" s="45"/>
     </row>
-    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
@@ -4978,7 +4978,7 @@
       <c r="G14" s="45"/>
       <c r="H14" s="45"/>
     </row>
-    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -4989,7 +4989,7 @@
       <c r="G15" s="45"/>
       <c r="H15" s="45"/>
     </row>
-    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
@@ -5002,7 +5002,7 @@
       <c r="G16" s="45"/>
       <c r="H16" s="45"/>
     </row>
-    <row r="17" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="40" t="s">
         <v>33</v>
       </c>
@@ -5014,12 +5014,12 @@
       </c>
       <c r="D17" s="24"/>
     </row>
-    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F18" s="45"/>
       <c r="G18" s="45"/>
       <c r="H18" s="45"/>
     </row>
-    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="121" t="s">
         <v>14</v>
       </c>
@@ -5030,7 +5030,7 @@
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
     </row>
-    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>34</v>
       </c>
@@ -5047,7 +5047,7 @@
       <c r="G20" s="45"/>
       <c r="H20" s="45"/>
     </row>
-    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>29</v>
       </c>
@@ -5064,7 +5064,7 @@
       <c r="G21" s="45"/>
       <c r="H21" s="45"/>
     </row>
-    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26"/>
       <c r="B22" s="32" t="s">
         <v>73</v>
@@ -5077,7 +5077,7 @@
       <c r="G22" s="45"/>
       <c r="H22" s="45"/>
     </row>
-    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>31</v>
       </c>
@@ -5090,7 +5090,7 @@
       <c r="G23" s="45"/>
       <c r="H23" s="45"/>
     </row>
-    <row r="24" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="40" t="s">
         <v>33</v>
       </c>
@@ -5118,46 +5118,48 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFCA512C-8AA6-614A-90C1-5D3FA65860D0}">
-  <dimension ref="A1:AA16"/>
+  <dimension ref="A1:AC16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="5" topLeftCell="V1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AA7" sqref="AA7"/>
+      <selection pane="topRight" activeCell="AC12" sqref="AC12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.83203125" style="64" customWidth="1"/>
+    <col min="1" max="1" width="17.875" style="64" customWidth="1"/>
     <col min="2" max="2" width="7.5" style="65" customWidth="1"/>
     <col min="3" max="3" width="13" style="65" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" style="65" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" style="65" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" style="64" customWidth="1"/>
+    <col min="4" max="4" width="6.625" style="65" customWidth="1"/>
+    <col min="5" max="5" width="6.125" style="65" customWidth="1"/>
+    <col min="6" max="6" width="12.375" style="64" customWidth="1"/>
     <col min="7" max="7" width="13.5" style="64" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" style="64" customWidth="1"/>
+    <col min="8" max="8" width="12.375" style="64" customWidth="1"/>
     <col min="9" max="9" width="13.5" style="64" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" style="64" customWidth="1"/>
+    <col min="10" max="10" width="12.375" style="64" customWidth="1"/>
     <col min="11" max="11" width="13.5" style="64" customWidth="1"/>
-    <col min="12" max="12" width="12.33203125" style="64" customWidth="1"/>
+    <col min="12" max="12" width="12.375" style="64" customWidth="1"/>
     <col min="13" max="13" width="13.5" style="64" customWidth="1"/>
-    <col min="14" max="14" width="12.33203125" style="64" customWidth="1"/>
+    <col min="14" max="14" width="12.375" style="64" customWidth="1"/>
     <col min="15" max="15" width="13.5" style="64" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" style="64" customWidth="1"/>
+    <col min="16" max="16" width="12.375" style="64" customWidth="1"/>
     <col min="17" max="17" width="13.5" style="64" customWidth="1"/>
-    <col min="18" max="18" width="12.33203125" style="64" customWidth="1"/>
+    <col min="18" max="18" width="12.375" style="64" customWidth="1"/>
     <col min="19" max="19" width="13.5" style="64" customWidth="1"/>
-    <col min="20" max="20" width="12.33203125" style="64" customWidth="1"/>
+    <col min="20" max="20" width="12.375" style="64" customWidth="1"/>
     <col min="21" max="21" width="13.5" style="64" customWidth="1"/>
-    <col min="22" max="22" width="12.33203125" style="64" customWidth="1"/>
+    <col min="22" max="22" width="12.375" style="64" customWidth="1"/>
     <col min="23" max="23" width="13.5" style="64" customWidth="1"/>
-    <col min="24" max="24" width="12.33203125" style="64" customWidth="1"/>
+    <col min="24" max="24" width="12.375" style="64" customWidth="1"/>
     <col min="25" max="25" width="13.5" style="64" customWidth="1"/>
-    <col min="26" max="26" width="12.33203125" style="64" customWidth="1"/>
+    <col min="26" max="26" width="12.375" style="64" customWidth="1"/>
     <col min="27" max="27" width="13.5" style="64" customWidth="1"/>
-    <col min="28" max="16384" width="10.83203125" style="64"/>
+    <col min="28" max="28" width="12.375" style="64" customWidth="1"/>
+    <col min="29" max="29" width="13.5" style="64" customWidth="1"/>
+    <col min="30" max="16384" width="10.875" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F1" s="126" t="s">
         <v>144</v>
       </c>
@@ -5202,8 +5204,12 @@
         <v>45444</v>
       </c>
       <c r="AA1" s="125"/>
-    </row>
-    <row r="2" spans="1:27" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AB1" s="124">
+        <v>45474</v>
+      </c>
+      <c r="AC1" s="125"/>
+    </row>
+    <row r="2" spans="1:29" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="65" t="s">
         <v>149</v>
       </c>
@@ -5276,8 +5282,14 @@
       <c r="AA2" s="80" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="3" spans="1:27" s="71" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB2" s="79" t="s">
+        <v>148</v>
+      </c>
+      <c r="AC2" s="80" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" s="71" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="69" t="s">
         <v>108</v>
       </c>
@@ -5335,8 +5347,10 @@
       <c r="AA3" s="82">
         <v>33673.120000000003</v>
       </c>
-    </row>
-    <row r="4" spans="1:27" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB3" s="81"/>
+      <c r="AC3" s="82"/>
+    </row>
+    <row r="4" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="72"/>
       <c r="B4" s="65">
         <v>57</v>
@@ -5391,8 +5405,10 @@
       <c r="AA4" s="84">
         <v>33672.57</v>
       </c>
-    </row>
-    <row r="5" spans="1:27" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB4" s="83"/>
+      <c r="AC4" s="84"/>
+    </row>
+    <row r="5" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="72"/>
       <c r="B5" s="65">
         <v>105</v>
@@ -5447,8 +5463,10 @@
       <c r="AA5" s="84">
         <v>33673.050000000003</v>
       </c>
-    </row>
-    <row r="6" spans="1:27" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB5" s="83"/>
+      <c r="AC5" s="84"/>
+    </row>
+    <row r="6" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="72"/>
       <c r="B6" s="65">
         <v>271</v>
@@ -5508,8 +5526,10 @@
       <c r="AA6" s="84">
         <v>129133.71</v>
       </c>
-    </row>
-    <row r="7" spans="1:27" s="75" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AB6" s="83"/>
+      <c r="AC6" s="84"/>
+    </row>
+    <row r="7" spans="1:29" s="75" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="73"/>
       <c r="B7" s="74">
         <v>277</v>
@@ -5570,8 +5590,10 @@
       <c r="AA7" s="86">
         <v>117417.77</v>
       </c>
-    </row>
-    <row r="8" spans="1:27" s="68" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AB7" s="85"/>
+      <c r="AC7" s="86"/>
+    </row>
+    <row r="8" spans="1:29" s="68" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="66" t="s">
         <v>13</v>
       </c>
@@ -5654,8 +5676,13 @@
         <f>SUM(Z3:AA7)</f>
         <v>347570.22000000003</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" s="71" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB8" s="87"/>
+      <c r="AC8" s="88">
+        <f>SUM(AB3:AC7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" s="71" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="69" t="s">
         <v>136</v>
       </c>
@@ -5715,8 +5742,12 @@
       <c r="AA9" s="82">
         <v>54600.03</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB9" s="81"/>
+      <c r="AC9" s="82">
+        <v>63700.03</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="72"/>
       <c r="B10" s="65">
         <v>18</v>
@@ -5778,8 +5809,12 @@
       <c r="AA10" s="84">
         <v>57600.18</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" s="75" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AB10" s="83"/>
+      <c r="AC10" s="84">
+        <v>67200.179999999993</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" s="75" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="73"/>
       <c r="B11" s="74">
         <v>21</v>
@@ -5842,8 +5877,12 @@
       <c r="AA11" s="86">
         <v>55080.21</v>
       </c>
-    </row>
-    <row r="12" spans="1:27" s="68" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AB11" s="85"/>
+      <c r="AC11" s="86">
+        <v>64260.21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" s="68" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="66" t="s">
         <v>13</v>
       </c>
@@ -5926,8 +5965,13 @@
         <f>SUM(AA9:AA11)</f>
         <v>167280.41999999998</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" s="78" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AB12" s="87"/>
+      <c r="AC12" s="88">
+        <f>SUM(AC9:AC11)</f>
+        <v>195160.41999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" s="78" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="76" t="s">
         <v>140</v>
       </c>
@@ -6005,8 +6049,10 @@
       <c r="AA13" s="93">
         <v>198080.11</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" s="78" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AB13" s="89"/>
+      <c r="AC13" s="93"/>
+    </row>
+    <row r="14" spans="1:29" s="78" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="76" t="s">
         <v>142</v>
       </c>
@@ -6080,8 +6126,10 @@
       <c r="AA14" s="93">
         <v>76800.11</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" s="78" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AB14" s="89"/>
+      <c r="AC14" s="93"/>
+    </row>
+    <row r="15" spans="1:29" s="78" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="76" t="s">
         <v>151</v>
       </c>
@@ -6155,8 +6203,10 @@
       <c r="AA15" s="90">
         <v>150000.01999999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="89"/>
+      <c r="AC15" s="90"/>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="K16" s="92">
         <f>K15+K14+K13+K12+K8</f>
         <v>336506.88</v>
@@ -6193,20 +6243,25 @@
         <f>AA15+AA14+AA13+AA12+AA8</f>
         <v>939730.87999999989</v>
       </c>
+      <c r="AC16" s="92">
+        <f>AC15+AC14+AC13+AC12+AC8</f>
+        <v>195160.41999999998</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="R1:S1"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="N1:O1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="R1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6220,15 +6275,15 @@
       <selection activeCell="A2" sqref="A2:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" style="108" customWidth="1"/>
-    <col min="2" max="2" width="3.33203125" style="109" customWidth="1"/>
+    <col min="1" max="1" width="13.625" style="108" customWidth="1"/>
+    <col min="2" max="2" width="3.375" style="109" customWidth="1"/>
     <col min="3" max="3" width="14.5" style="108" customWidth="1"/>
     <col min="4" max="16384" width="11" style="108"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" s="110" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" s="110" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="110" t="s">
         <v>167</v>
       </c>
@@ -6239,7 +6294,7 @@
         <v>267000</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="110" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" s="110" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="110" t="s">
         <v>174</v>
       </c>
@@ -6250,7 +6305,7 @@
         <v>117417.77</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="110" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" s="110" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="110" t="s">
         <v>26</v>
       </c>
@@ -6261,7 +6316,7 @@
         <v>3271</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="110" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" s="110" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="110" t="s">
         <v>176</v>
       </c>
@@ -6272,7 +6327,7 @@
         <v>6762</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="110" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" s="110" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="110" t="s">
         <v>177</v>
       </c>
@@ -6283,7 +6338,7 @@
         <v>14472</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="110" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" s="110" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="110" t="s">
         <v>164</v>
       </c>
@@ -6304,27 +6359,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4F33156-2118-7347-88EF-33566C005459}">
   <dimension ref="B1:Q28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13" style="99" customWidth="1"/>
     <col min="3" max="3" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="5.1640625" customWidth="1"/>
+    <col min="5" max="5" width="5.125" customWidth="1"/>
     <col min="6" max="6" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="1"/>
-    <col min="8" max="8" width="16.6640625" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="7" max="7" width="10.875" style="1"/>
+    <col min="8" max="8" width="16.625" customWidth="1"/>
+    <col min="9" max="9" width="13.375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.375" customWidth="1"/>
     <col min="14" max="14" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B1" s="98"/>
       <c r="C1" s="65"/>
       <c r="D1" s="65"/>
@@ -6334,7 +6389,7 @@
       <c r="H1" s="65"/>
       <c r="I1" s="95"/>
     </row>
-    <row r="2" spans="2:17" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:17" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="98" t="s">
         <v>173</v>
       </c>
@@ -6360,7 +6415,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="3" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="104" t="s">
         <v>108</v>
       </c>
@@ -6386,7 +6441,7 @@
         <v>45505</v>
       </c>
     </row>
-    <row r="4" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="98"/>
       <c r="C4" s="65">
         <v>57</v>
@@ -6405,7 +6460,7 @@
       <c r="P4" s="100"/>
       <c r="Q4" s="100"/>
     </row>
-    <row r="5" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="98"/>
       <c r="C5" s="65">
         <v>105</v>
@@ -6433,7 +6488,7 @@
       <c r="P5" s="100"/>
       <c r="Q5" s="100"/>
     </row>
-    <row r="6" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="98"/>
       <c r="C6" s="65">
         <v>271</v>
@@ -6461,7 +6516,7 @@
       <c r="P6" s="100"/>
       <c r="Q6" s="100"/>
     </row>
-    <row r="7" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="98"/>
       <c r="C7" s="65">
         <v>277</v>
@@ -6489,7 +6544,7 @@
       <c r="P7" s="100"/>
       <c r="Q7" s="100"/>
     </row>
-    <row r="8" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="105"/>
       <c r="C8" s="74"/>
       <c r="D8" s="74" t="s">
@@ -6516,7 +6571,7 @@
       <c r="P8" s="100"/>
       <c r="Q8" s="100"/>
     </row>
-    <row r="9" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="104" t="s">
         <v>136</v>
       </c>
@@ -6546,7 +6601,7 @@
       <c r="P9" s="100"/>
       <c r="Q9" s="100"/>
     </row>
-    <row r="10" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="98"/>
       <c r="C10" s="65">
         <v>18</v>
@@ -6574,7 +6629,7 @@
       <c r="P10" s="100"/>
       <c r="Q10" s="100"/>
     </row>
-    <row r="11" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="105"/>
       <c r="C11" s="74">
         <v>21</v>
@@ -6602,7 +6657,7 @@
       <c r="P11" s="100"/>
       <c r="Q11" s="100"/>
     </row>
-    <row r="12" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="98" t="s">
         <v>154</v>
       </c>
@@ -6632,7 +6687,7 @@
       <c r="P12" s="100"/>
       <c r="Q12" s="100"/>
     </row>
-    <row r="13" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="104" t="s">
         <v>44</v>
       </c>
@@ -6662,7 +6717,7 @@
       <c r="P13" s="100"/>
       <c r="Q13" s="100"/>
     </row>
-    <row r="14" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="98"/>
       <c r="C14" s="65" t="s">
         <v>156</v>
@@ -6690,7 +6745,7 @@
       <c r="P14" s="100"/>
       <c r="Q14" s="100"/>
     </row>
-    <row r="15" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="98"/>
       <c r="C15" s="65" t="s">
         <v>157</v>
@@ -6718,7 +6773,7 @@
       <c r="P15" s="100"/>
       <c r="Q15" s="100"/>
     </row>
-    <row r="16" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="98"/>
       <c r="C16" s="65" t="s">
         <v>158</v>
@@ -6746,7 +6801,7 @@
       <c r="P16" s="100"/>
       <c r="Q16" s="100"/>
     </row>
-    <row r="17" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="105"/>
       <c r="C17" s="74" t="s">
         <v>159</v>
@@ -6774,7 +6829,7 @@
       <c r="P17" s="100"/>
       <c r="Q17" s="100"/>
     </row>
-    <row r="18" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="98" t="s">
         <v>160</v>
       </c>
@@ -6799,7 +6854,7 @@
       <c r="P18" s="100"/>
       <c r="Q18" s="100"/>
     </row>
-    <row r="19" spans="2:17" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:17" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="104" t="s">
         <v>164</v>
       </c>
@@ -6814,7 +6869,7 @@
       <c r="H19" s="70"/>
       <c r="I19" s="96"/>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B23" s="99" t="s">
         <v>167</v>
       </c>
@@ -6823,7 +6878,7 @@
         <v>520000</v>
       </c>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B24" s="99" t="s">
         <v>174</v>
       </c>
@@ -6832,7 +6887,7 @@
         <v>81897.77</v>
       </c>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B25" s="99" t="s">
         <v>15</v>
       </c>
@@ -6840,7 +6895,7 @@
         <v>783.84</v>
       </c>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B26" s="99" t="s">
         <v>14</v>
       </c>
@@ -6848,7 +6903,7 @@
         <v>15649.9</v>
       </c>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B27" s="99" t="s">
         <v>175</v>
       </c>
@@ -6856,7 +6911,7 @@
         <v>21866.68</v>
       </c>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B28" s="99" t="s">
         <v>164</v>
       </c>
@@ -6879,16 +6934,16 @@
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13" style="99" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="5" max="5" width="5.1640625" customWidth="1"/>
+    <col min="5" max="5" width="5.125" customWidth="1"/>
     <col min="6" max="6" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="1"/>
+    <col min="7" max="7" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B1" s="98"/>
       <c r="C1" s="65"/>
       <c r="D1" s="65"/>
@@ -6896,7 +6951,7 @@
       <c r="F1" s="100"/>
       <c r="G1" s="95"/>
     </row>
-    <row r="2" spans="2:9" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="98"/>
       <c r="C2" s="65" t="s">
         <v>149</v>
@@ -6914,7 +6969,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="3" spans="2:9" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:9" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="104" t="s">
         <v>108</v>
       </c>
@@ -6936,7 +6991,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="4" spans="2:9" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:9" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="98"/>
       <c r="C4" s="65">
         <v>57</v>
@@ -6956,7 +7011,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="2:9" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:9" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="98"/>
       <c r="C5" s="65">
         <v>105</v>
@@ -6976,7 +7031,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:9" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:9" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="98"/>
       <c r="C6" s="65">
         <v>271</v>
@@ -6999,7 +7054,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:9" s="65" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="105"/>
       <c r="C7" s="74">
         <v>277</v>
@@ -7022,7 +7077,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="2:9" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:9" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="104" t="s">
         <v>136</v>
       </c>
@@ -7047,7 +7102,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="2:9" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:9" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="98"/>
       <c r="C9" s="65">
         <v>18</v>
@@ -7067,7 +7122,7 @@
         <v>220600</v>
       </c>
     </row>
-    <row r="10" spans="2:9" s="65" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="105"/>
       <c r="C10" s="74">
         <v>21</v>
@@ -7087,7 +7142,7 @@
         <v>188080</v>
       </c>
     </row>
-    <row r="11" spans="2:9" s="65" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="98" t="s">
         <v>154</v>
       </c>
@@ -7106,7 +7161,7 @@
       </c>
       <c r="G11" s="95"/>
     </row>
-    <row r="12" spans="2:9" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:9" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="104" t="s">
         <v>44</v>
       </c>
@@ -7125,7 +7180,7 @@
       </c>
       <c r="G12" s="96"/>
     </row>
-    <row r="13" spans="2:9" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:9" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="98"/>
       <c r="C13" s="65" t="s">
         <v>156</v>
@@ -7139,7 +7194,7 @@
       <c r="F13" s="100"/>
       <c r="G13" s="95"/>
     </row>
-    <row r="14" spans="2:9" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:9" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="98"/>
       <c r="C14" s="65" t="s">
         <v>157</v>
@@ -7156,7 +7211,7 @@
       </c>
       <c r="G14" s="95"/>
     </row>
-    <row r="15" spans="2:9" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:9" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="98"/>
       <c r="C15" s="65" t="s">
         <v>158</v>
@@ -7173,7 +7228,7 @@
       </c>
       <c r="G15" s="95"/>
     </row>
-    <row r="16" spans="2:9" s="65" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="105"/>
       <c r="C16" s="74" t="s">
         <v>159</v>
@@ -7191,7 +7246,7 @@
       <c r="G16" s="97"/>
       <c r="I16" s="94"/>
     </row>
-    <row r="17" spans="2:7" s="65" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" s="65" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="98" t="s">
         <v>160</v>
       </c>
@@ -7210,7 +7265,7 @@
       </c>
       <c r="G17" s="95"/>
     </row>
-    <row r="18" spans="2:7" s="65" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:7" s="65" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="104" t="s">
         <v>164</v>
       </c>
@@ -7237,29 +7292,29 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="17.625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="15.875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="17.125" style="8" customWidth="1"/>
     <col min="4" max="5" width="11" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="8"/>
+    <col min="6" max="16384" width="10.875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="9">
         <f ca="1">TODAY()</f>
-        <v>45482</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>45505</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5"/>
     </row>
-    <row r="3" spans="1:5" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:5" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>13</v>
       </c>
@@ -7268,7 +7323,7 @@
         <v>557700</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>9</v>
       </c>
@@ -7276,7 +7331,7 @@
         <v>133000</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>10</v>
       </c>
@@ -7284,7 +7339,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>1</v>
       </c>
@@ -7292,7 +7347,7 @@
         <v>24700</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>0</v>
       </c>
@@ -7300,7 +7355,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>7</v>
       </c>
@@ -7308,7 +7363,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>6</v>
       </c>
@@ -7316,7 +7371,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>8</v>
       </c>
@@ -7327,7 +7382,7 @@
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>2</v>
       </c>
@@ -7338,7 +7393,7 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>3</v>
       </c>
@@ -7349,7 +7404,7 @@
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>4</v>
       </c>
@@ -7360,7 +7415,7 @@
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>5</v>
       </c>
@@ -7371,7 +7426,7 @@
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>109</v>
       </c>
@@ -7379,23 +7434,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
       <c r="B17" s="14"/>
     </row>
-    <row r="18" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
       <c r="B18" s="14"/>
     </row>
-    <row r="19" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
       <c r="B19" s="14"/>
     </row>
-    <row r="20" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
       <c r="B20" s="14"/>
     </row>
-    <row r="21" spans="1:2" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
     </row>
@@ -7415,17 +7470,17 @@
       <selection activeCell="A26" sqref="A26:D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.1640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" style="31" customWidth="1"/>
-    <col min="6" max="16384" width="42.1640625" style="31"/>
+    <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="6.125" style="31" customWidth="1"/>
+    <col min="6" max="16384" width="42.125" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
@@ -7435,8 +7490,8 @@
       <c r="C2" s="114"/>
       <c r="D2" s="115"/>
     </row>
-    <row r="3" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
@@ -7448,8 +7503,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
@@ -7457,33 +7512,33 @@
       <c r="C6" s="23"/>
       <c r="D6" s="24"/>
     </row>
-    <row r="7" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
       <c r="D7" s="24"/>
     </row>
-    <row r="8" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="26"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
       <c r="D8" s="24"/>
     </row>
-    <row r="9" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="27"/>
     </row>
-    <row r="11" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="27"/>
     </row>
-    <row r="12" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="118" t="s">
         <v>26</v>
       </c>
@@ -7491,7 +7546,7 @@
       <c r="C13" s="119"/>
       <c r="D13" s="120"/>
     </row>
-    <row r="14" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
@@ -7503,7 +7558,7 @@
       </c>
       <c r="D14" s="28"/>
     </row>
-    <row r="15" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -7511,7 +7566,7 @@
       <c r="C15" s="22"/>
       <c r="D15" s="24"/>
     </row>
-    <row r="16" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
@@ -7521,7 +7576,7 @@
       <c r="C16" s="23"/>
       <c r="D16" s="24"/>
     </row>
-    <row r="17" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="29" t="s">
         <v>33</v>
       </c>
@@ -7533,8 +7588,8 @@
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="121" t="s">
         <v>83</v>
       </c>
@@ -7542,7 +7597,7 @@
       <c r="C19" s="122"/>
       <c r="D19" s="123"/>
     </row>
-    <row r="20" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>27</v>
       </c>
@@ -7556,7 +7611,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>29</v>
       </c>
@@ -7570,7 +7625,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26"/>
       <c r="B22" s="32" t="s">
         <v>89</v>
@@ -7582,7 +7637,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>31</v>
       </c>
@@ -7592,7 +7647,7 @@
       <c r="C23" s="23"/>
       <c r="D23" s="24"/>
     </row>
-    <row r="24" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="29" t="s">
         <v>33</v>
       </c>
@@ -7600,7 +7655,7 @@
       <c r="C24" s="23"/>
       <c r="D24" s="24"/>
     </row>
-    <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="121" t="s">
         <v>100</v>
       </c>
@@ -7608,7 +7663,7 @@
       <c r="C26" s="122"/>
       <c r="D26" s="123"/>
     </row>
-    <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="21" t="s">
         <v>27</v>
       </c>
@@ -7618,7 +7673,7 @@
       </c>
       <c r="D27" s="33"/>
     </row>
-    <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="21" t="s">
         <v>29</v>
       </c>
@@ -7630,7 +7685,7 @@
       </c>
       <c r="D28" s="44"/>
     </row>
-    <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="26"/>
       <c r="B29" s="32" t="s">
         <v>96</v>
@@ -7640,7 +7695,7 @@
       </c>
       <c r="D29" s="44"/>
     </row>
-    <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="29" t="s">
         <v>31</v>
       </c>
@@ -7650,7 +7705,7 @@
       <c r="C30" s="23"/>
       <c r="D30" s="24"/>
     </row>
-    <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="29" t="s">
         <v>33</v>
       </c>
@@ -7687,18 +7742,18 @@
       <selection activeCell="F1" sqref="F1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.1640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" style="31" customWidth="1"/>
-    <col min="6" max="16384" width="42.1640625" style="31"/>
+    <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="6.125" style="31" customWidth="1"/>
+    <col min="6" max="16384" width="42.125" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
@@ -7708,8 +7763,8 @@
       <c r="C2" s="114"/>
       <c r="D2" s="115"/>
     </row>
-    <row r="3" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
@@ -7721,8 +7776,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
@@ -7732,33 +7787,33 @@
       <c r="C6" s="23"/>
       <c r="D6" s="24"/>
     </row>
-    <row r="7" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
       <c r="D7" s="24"/>
     </row>
-    <row r="8" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="26"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
       <c r="D8" s="24"/>
     </row>
-    <row r="9" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="27"/>
     </row>
-    <row r="11" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="27"/>
     </row>
-    <row r="12" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="118" t="s">
         <v>26</v>
       </c>
@@ -7766,7 +7821,7 @@
       <c r="C13" s="119"/>
       <c r="D13" s="120"/>
     </row>
-    <row r="14" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
@@ -7778,7 +7833,7 @@
         <v>992018007</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -7788,7 +7843,7 @@
       <c r="C15" s="22"/>
       <c r="D15" s="24"/>
     </row>
-    <row r="16" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
@@ -7798,7 +7853,7 @@
       <c r="C16" s="23"/>
       <c r="D16" s="24"/>
     </row>
-    <row r="17" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="29" t="s">
         <v>33</v>
       </c>
@@ -7808,8 +7863,8 @@
       <c r="C17" s="23"/>
       <c r="D17" s="24"/>
     </row>
-    <row r="18" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="121" t="s">
         <v>83</v>
       </c>
@@ -7817,7 +7872,7 @@
       <c r="C19" s="122"/>
       <c r="D19" s="123"/>
     </row>
-    <row r="20" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>27</v>
       </c>
@@ -7831,7 +7886,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>29</v>
       </c>
@@ -7843,7 +7898,7 @@
       </c>
       <c r="D21" s="44"/>
     </row>
-    <row r="22" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26"/>
       <c r="B22" s="32" t="s">
         <v>96</v>
@@ -7853,7 +7908,7 @@
       </c>
       <c r="D22" s="44"/>
     </row>
-    <row r="23" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>31</v>
       </c>
@@ -7863,7 +7918,7 @@
       <c r="C23" s="23"/>
       <c r="D23" s="24"/>
     </row>
-    <row r="24" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="29" t="s">
         <v>33</v>
       </c>
@@ -7871,7 +7926,7 @@
       <c r="C24" s="23"/>
       <c r="D24" s="24"/>
     </row>
-    <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="121" t="s">
         <v>100</v>
       </c>
@@ -7879,7 +7934,7 @@
       <c r="C26" s="122"/>
       <c r="D26" s="123"/>
     </row>
-    <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="21" t="s">
         <v>27</v>
       </c>
@@ -7889,7 +7944,7 @@
       </c>
       <c r="D27" s="33"/>
     </row>
-    <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="21" t="s">
         <v>29</v>
       </c>
@@ -7901,7 +7956,7 @@
       </c>
       <c r="D28" s="44"/>
     </row>
-    <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="26"/>
       <c r="B29" s="32" t="s">
         <v>96</v>
@@ -7911,7 +7966,7 @@
       </c>
       <c r="D29" s="44"/>
     </row>
-    <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="29" t="s">
         <v>31</v>
       </c>
@@ -7921,7 +7976,7 @@
       <c r="C30" s="23"/>
       <c r="D30" s="24"/>
     </row>
-    <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="29" t="s">
         <v>33</v>
       </c>
@@ -7958,17 +8013,17 @@
       <selection activeCell="F1" sqref="F1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.1640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" style="31" customWidth="1"/>
-    <col min="6" max="16384" width="42.1640625" style="31"/>
+    <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="6.125" style="31" customWidth="1"/>
+    <col min="6" max="16384" width="42.125" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
@@ -7978,8 +8033,8 @@
       <c r="C2" s="114"/>
       <c r="D2" s="115"/>
     </row>
-    <row r="3" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
@@ -7991,8 +8046,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
@@ -8000,33 +8055,33 @@
       <c r="C6" s="23"/>
       <c r="D6" s="24"/>
     </row>
-    <row r="7" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
       <c r="D7" s="24"/>
     </row>
-    <row r="8" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="26"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
       <c r="D8" s="24"/>
     </row>
-    <row r="9" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="27"/>
     </row>
-    <row r="11" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="27"/>
     </row>
-    <row r="12" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="118" t="s">
         <v>99</v>
       </c>
@@ -8037,7 +8092,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
@@ -8049,7 +8104,7 @@
       </c>
       <c r="D14" s="28"/>
     </row>
-    <row r="15" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -8057,7 +8112,7 @@
       <c r="C15" s="22"/>
       <c r="D15" s="24"/>
     </row>
-    <row r="16" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
@@ -8067,7 +8122,7 @@
       <c r="C16" s="23"/>
       <c r="D16" s="24"/>
     </row>
-    <row r="17" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="29" t="s">
         <v>33</v>
       </c>
@@ -8075,8 +8130,8 @@
       <c r="C17" s="23"/>
       <c r="D17" s="24"/>
     </row>
-    <row r="18" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="121" t="s">
         <v>83</v>
       </c>
@@ -8084,7 +8139,7 @@
       <c r="C19" s="122"/>
       <c r="D19" s="123"/>
     </row>
-    <row r="20" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>27</v>
       </c>
@@ -8098,7 +8153,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>29</v>
       </c>
@@ -8110,7 +8165,7 @@
       </c>
       <c r="D21" s="44"/>
     </row>
-    <row r="22" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26"/>
       <c r="B22" s="32" t="s">
         <v>96</v>
@@ -8120,7 +8175,7 @@
       </c>
       <c r="D22" s="44"/>
     </row>
-    <row r="23" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>31</v>
       </c>
@@ -8130,7 +8185,7 @@
       <c r="C23" s="23"/>
       <c r="D23" s="24"/>
     </row>
-    <row r="24" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="29" t="s">
         <v>33</v>
       </c>
@@ -8138,7 +8193,7 @@
       <c r="C24" s="23"/>
       <c r="D24" s="24"/>
     </row>
-    <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="121" t="s">
         <v>100</v>
       </c>
@@ -8146,7 +8201,7 @@
       <c r="C26" s="122"/>
       <c r="D26" s="123"/>
     </row>
-    <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="21" t="s">
         <v>27</v>
       </c>
@@ -8160,7 +8215,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="21" t="s">
         <v>29</v>
       </c>
@@ -8172,7 +8227,7 @@
       </c>
       <c r="D28" s="44"/>
     </row>
-    <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="26"/>
       <c r="B29" s="32" t="s">
         <v>96</v>
@@ -8182,7 +8237,7 @@
       </c>
       <c r="D29" s="44"/>
     </row>
-    <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="29" t="s">
         <v>31</v>
       </c>
@@ -8192,7 +8247,7 @@
       <c r="C30" s="23"/>
       <c r="D30" s="24"/>
     </row>
-    <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="29" t="s">
         <v>115</v>
       </c>
@@ -8206,7 +8261,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="29" t="s">
         <v>114</v>
       </c>
@@ -8245,20 +8300,20 @@
       <selection activeCell="F2" sqref="F2:G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.1640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" style="31" customWidth="1"/>
+    <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="6.125" style="31" customWidth="1"/>
     <col min="6" max="6" width="29" style="45" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" style="45" customWidth="1"/>
-    <col min="8" max="9" width="15.6640625" style="45" customWidth="1"/>
-    <col min="10" max="16384" width="42.1640625" style="31"/>
+    <col min="7" max="7" width="15.375" style="45" customWidth="1"/>
+    <col min="8" max="9" width="15.625" style="45" customWidth="1"/>
+    <col min="10" max="16384" width="42.125" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
@@ -8276,7 +8331,7 @@
       <c r="H2" s="45"/>
       <c r="I2" s="45"/>
     </row>
-    <row r="3" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F3" s="56" t="s">
         <v>126</v>
       </c>
@@ -8286,7 +8341,7 @@
       <c r="H3" s="45"/>
       <c r="I3" s="45"/>
     </row>
-    <row r="4" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
@@ -8306,7 +8361,7 @@
       <c r="H4" s="45"/>
       <c r="I4" s="45"/>
     </row>
-    <row r="5" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F5" s="56" t="s">
         <v>122</v>
       </c>
@@ -8316,7 +8371,7 @@
       <c r="H5" s="45"/>
       <c r="I5" s="45"/>
     </row>
-    <row r="6" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
@@ -8332,7 +8387,7 @@
       <c r="H6" s="45"/>
       <c r="I6" s="45"/>
     </row>
-    <row r="7" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
@@ -8347,7 +8402,7 @@
       <c r="H7" s="45"/>
       <c r="I7" s="45"/>
     </row>
-    <row r="8" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="26"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
@@ -8361,7 +8416,7 @@
       <c r="H8" s="45"/>
       <c r="I8" s="45"/>
     </row>
-    <row r="9" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F9" s="56" t="s">
         <v>127</v>
       </c>
@@ -8372,7 +8427,7 @@
       <c r="H9" s="45"/>
       <c r="I9" s="45"/>
     </row>
-    <row r="10" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
@@ -8380,7 +8435,7 @@
       <c r="H10" s="45"/>
       <c r="I10" s="45"/>
     </row>
-    <row r="11" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
@@ -8389,13 +8444,13 @@
       <c r="H11" s="45"/>
       <c r="I11" s="45"/>
     </row>
-    <row r="12" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F12" s="46"/>
       <c r="G12" s="45"/>
       <c r="H12" s="45"/>
       <c r="I12" s="45"/>
     </row>
-    <row r="13" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="118" t="s">
         <v>99</v>
       </c>
@@ -8407,7 +8462,7 @@
       <c r="H13" s="45"/>
       <c r="I13" s="45"/>
     </row>
-    <row r="14" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
@@ -8423,7 +8478,7 @@
       <c r="H14" s="45"/>
       <c r="I14" s="45"/>
     </row>
-    <row r="15" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -8437,7 +8492,7 @@
       <c r="H15" s="45"/>
       <c r="I15" s="45"/>
     </row>
-    <row r="16" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
@@ -8451,7 +8506,7 @@
       <c r="H16" s="45"/>
       <c r="I16" s="45"/>
     </row>
-    <row r="17" spans="1:9" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="29" t="s">
         <v>33</v>
       </c>
@@ -8462,13 +8517,13 @@
       <c r="D17" s="24"/>
       <c r="F17" s="46"/>
     </row>
-    <row r="18" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F18" s="46"/>
       <c r="G18" s="45"/>
       <c r="H18" s="45"/>
       <c r="I18" s="45"/>
     </row>
-    <row r="19" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="121" t="s">
         <v>83</v>
       </c>
@@ -8480,7 +8535,7 @@
       <c r="H19" s="45"/>
       <c r="I19" s="45"/>
     </row>
-    <row r="20" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>27</v>
       </c>
@@ -8498,7 +8553,7 @@
       <c r="H20" s="45"/>
       <c r="I20" s="45"/>
     </row>
-    <row r="21" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>29</v>
       </c>
@@ -8514,7 +8569,7 @@
       <c r="H21" s="45"/>
       <c r="I21" s="45"/>
     </row>
-    <row r="22" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26"/>
       <c r="B22" s="32" t="s">
         <v>96</v>
@@ -8528,7 +8583,7 @@
       <c r="H22" s="45"/>
       <c r="I22" s="45"/>
     </row>
-    <row r="23" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>31</v>
       </c>
@@ -8542,7 +8597,7 @@
       <c r="H23" s="45"/>
       <c r="I23" s="45"/>
     </row>
-    <row r="24" spans="1:9" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="29" t="s">
         <v>33</v>
       </c>
@@ -8551,10 +8606,10 @@
       <c r="D24" s="24"/>
       <c r="F24" s="46"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F25" s="46"/>
     </row>
-    <row r="26" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="121" t="s">
         <v>100</v>
       </c>
@@ -8563,7 +8618,7 @@
       <c r="D26" s="123"/>
       <c r="F26" s="46"/>
     </row>
-    <row r="27" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="21" t="s">
         <v>27</v>
       </c>
@@ -8578,7 +8633,7 @@
       </c>
       <c r="F27" s="46"/>
     </row>
-    <row r="28" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="21" t="s">
         <v>29</v>
       </c>
@@ -8591,7 +8646,7 @@
       <c r="D28" s="44"/>
       <c r="F28" s="46"/>
     </row>
-    <row r="29" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="26"/>
       <c r="B29" s="32" t="s">
         <v>96</v>
@@ -8602,7 +8657,7 @@
       <c r="D29" s="44"/>
       <c r="F29" s="46"/>
     </row>
-    <row r="30" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="29" t="s">
         <v>31</v>
       </c>
@@ -8613,7 +8668,7 @@
       <c r="D30" s="24"/>
       <c r="F30" s="46"/>
     </row>
-    <row r="31" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="29" t="s">
         <v>33</v>
       </c>
@@ -8650,19 +8705,19 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.1640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" style="31" customWidth="1"/>
-    <col min="6" max="7" width="15.33203125" style="45" customWidth="1"/>
-    <col min="8" max="9" width="15.6640625" style="45" customWidth="1"/>
-    <col min="10" max="16384" width="42.1640625" style="31"/>
+    <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="6.125" style="31" customWidth="1"/>
+    <col min="6" max="7" width="15.375" style="45" customWidth="1"/>
+    <col min="8" max="9" width="15.625" style="45" customWidth="1"/>
+    <col min="10" max="16384" width="42.125" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
@@ -8676,13 +8731,13 @@
       <c r="H2" s="45"/>
       <c r="I2" s="45"/>
     </row>
-    <row r="3" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F3" s="46"/>
       <c r="G3" s="45"/>
       <c r="H3" s="45"/>
       <c r="I3" s="45"/>
     </row>
-    <row r="4" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
@@ -8698,13 +8753,13 @@
       <c r="H4" s="45"/>
       <c r="I4" s="45"/>
     </row>
-    <row r="5" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F5" s="46"/>
       <c r="G5" s="45"/>
       <c r="H5" s="45"/>
       <c r="I5" s="45"/>
     </row>
-    <row r="6" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
@@ -8716,7 +8771,7 @@
       <c r="H6" s="45"/>
       <c r="I6" s="45"/>
     </row>
-    <row r="7" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
@@ -8726,7 +8781,7 @@
       <c r="H7" s="45"/>
       <c r="I7" s="45"/>
     </row>
-    <row r="8" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="26"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
@@ -8736,13 +8791,13 @@
       <c r="H8" s="45"/>
       <c r="I8" s="45"/>
     </row>
-    <row r="9" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F9" s="46"/>
       <c r="G9" s="45"/>
       <c r="H9" s="45"/>
       <c r="I9" s="45"/>
     </row>
-    <row r="10" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
@@ -8752,7 +8807,7 @@
       <c r="H10" s="45"/>
       <c r="I10" s="45"/>
     </row>
-    <row r="11" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
@@ -8762,13 +8817,13 @@
       <c r="H11" s="45"/>
       <c r="I11" s="45"/>
     </row>
-    <row r="12" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F12" s="46"/>
       <c r="G12" s="45"/>
       <c r="H12" s="45"/>
       <c r="I12" s="45"/>
     </row>
-    <row r="13" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="118" t="s">
         <v>99</v>
       </c>
@@ -8780,7 +8835,7 @@
       <c r="H13" s="45"/>
       <c r="I13" s="45"/>
     </row>
-    <row r="14" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
@@ -8794,7 +8849,7 @@
       <c r="H14" s="45"/>
       <c r="I14" s="45"/>
     </row>
-    <row r="15" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -8806,7 +8861,7 @@
       <c r="H15" s="45"/>
       <c r="I15" s="45"/>
     </row>
-    <row r="16" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
@@ -8818,7 +8873,7 @@
       <c r="H16" s="45"/>
       <c r="I16" s="45"/>
     </row>
-    <row r="17" spans="1:9" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="29" t="s">
         <v>33</v>
       </c>
@@ -8829,13 +8884,13 @@
       <c r="D17" s="24"/>
       <c r="F17" s="46"/>
     </row>
-    <row r="18" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F18" s="46"/>
       <c r="G18" s="45"/>
       <c r="H18" s="45"/>
       <c r="I18" s="45"/>
     </row>
-    <row r="19" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="121" t="s">
         <v>83</v>
       </c>
@@ -8847,7 +8902,7 @@
       <c r="H19" s="45"/>
       <c r="I19" s="45"/>
     </row>
-    <row r="20" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>27</v>
       </c>
@@ -8865,7 +8920,7 @@
       <c r="H20" s="45"/>
       <c r="I20" s="45"/>
     </row>
-    <row r="21" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>29</v>
       </c>
@@ -8881,7 +8936,7 @@
       <c r="H21" s="45"/>
       <c r="I21" s="45"/>
     </row>
-    <row r="22" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26"/>
       <c r="B22" s="32" t="s">
         <v>96</v>
@@ -8895,7 +8950,7 @@
       <c r="H22" s="45"/>
       <c r="I22" s="45"/>
     </row>
-    <row r="23" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>31</v>
       </c>
@@ -8909,7 +8964,7 @@
       <c r="H23" s="45"/>
       <c r="I23" s="45"/>
     </row>
-    <row r="24" spans="1:9" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="29" t="s">
         <v>33</v>
       </c>
@@ -8918,10 +8973,10 @@
       <c r="D24" s="24"/>
       <c r="F24" s="46"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F25" s="46"/>
     </row>
-    <row r="26" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="121" t="s">
         <v>100</v>
       </c>
@@ -8930,7 +8985,7 @@
       <c r="D26" s="123"/>
       <c r="F26" s="46"/>
     </row>
-    <row r="27" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="21" t="s">
         <v>27</v>
       </c>
@@ -8941,7 +8996,7 @@
       <c r="D27" s="33"/>
       <c r="F27" s="46"/>
     </row>
-    <row r="28" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="21" t="s">
         <v>29</v>
       </c>
@@ -8954,7 +9009,7 @@
       <c r="D28" s="44"/>
       <c r="F28" s="46"/>
     </row>
-    <row r="29" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="26"/>
       <c r="B29" s="32" t="s">
         <v>96</v>
@@ -8965,7 +9020,7 @@
       <c r="D29" s="44"/>
       <c r="F29" s="46"/>
     </row>
-    <row r="30" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="29" t="s">
         <v>31</v>
       </c>
@@ -8974,7 +9029,7 @@
       <c r="D30" s="24"/>
       <c r="F30" s="46"/>
     </row>
-    <row r="31" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="29" t="s">
         <v>33</v>
       </c>
@@ -9011,17 +9066,17 @@
       <selection activeCell="F1" sqref="F1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.1640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" style="31" customWidth="1"/>
-    <col min="6" max="16384" width="42.1640625" style="31"/>
+    <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="6.125" style="31" customWidth="1"/>
+    <col min="6" max="16384" width="42.125" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
@@ -9031,8 +9086,8 @@
       <c r="C2" s="114"/>
       <c r="D2" s="115"/>
     </row>
-    <row r="3" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
@@ -9044,8 +9099,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
@@ -9053,33 +9108,33 @@
       <c r="C6" s="23"/>
       <c r="D6" s="24"/>
     </row>
-    <row r="7" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
       <c r="D7" s="24"/>
     </row>
-    <row r="8" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="26"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
       <c r="D8" s="24"/>
     </row>
-    <row r="9" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="27"/>
     </row>
-    <row r="11" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="27"/>
     </row>
-    <row r="12" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="118" t="s">
         <v>99</v>
       </c>
@@ -9087,7 +9142,7 @@
       <c r="C13" s="119"/>
       <c r="D13" s="120"/>
     </row>
-    <row r="14" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
@@ -9097,7 +9152,7 @@
       </c>
       <c r="D14" s="28"/>
     </row>
-    <row r="15" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -9105,7 +9160,7 @@
       <c r="C15" s="22"/>
       <c r="D15" s="24"/>
     </row>
-    <row r="16" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
@@ -9113,7 +9168,7 @@
       <c r="C16" s="23"/>
       <c r="D16" s="24"/>
     </row>
-    <row r="17" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="29" t="s">
         <v>33</v>
       </c>
@@ -9123,8 +9178,8 @@
       <c r="C17" s="23"/>
       <c r="D17" s="24"/>
     </row>
-    <row r="18" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="121" t="s">
         <v>83</v>
       </c>
@@ -9132,7 +9187,7 @@
       <c r="C19" s="122"/>
       <c r="D19" s="123"/>
     </row>
-    <row r="20" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>27</v>
       </c>
@@ -9146,7 +9201,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>29</v>
       </c>
@@ -9158,7 +9213,7 @@
       </c>
       <c r="D21" s="44"/>
     </row>
-    <row r="22" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26"/>
       <c r="B22" s="32" t="s">
         <v>96</v>
@@ -9168,7 +9223,7 @@
       </c>
       <c r="D22" s="44"/>
     </row>
-    <row r="23" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>31</v>
       </c>
@@ -9178,7 +9233,7 @@
       <c r="C23" s="23"/>
       <c r="D23" s="24"/>
     </row>
-    <row r="24" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="29" t="s">
         <v>33</v>
       </c>
@@ -9186,7 +9241,7 @@
       <c r="C24" s="23"/>
       <c r="D24" s="24"/>
     </row>
-    <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="121" t="s">
         <v>100</v>
       </c>
@@ -9194,7 +9249,7 @@
       <c r="C26" s="122"/>
       <c r="D26" s="123"/>
     </row>
-    <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="21" t="s">
         <v>27</v>
       </c>
@@ -9204,7 +9259,7 @@
       </c>
       <c r="D27" s="33"/>
     </row>
-    <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="21" t="s">
         <v>29</v>
       </c>
@@ -9216,7 +9271,7 @@
       </c>
       <c r="D28" s="44"/>
     </row>
-    <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="26"/>
       <c r="B29" s="32" t="s">
         <v>96</v>
@@ -9226,7 +9281,7 @@
       </c>
       <c r="D29" s="44"/>
     </row>
-    <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="29" t="s">
         <v>31</v>
       </c>
@@ -9234,7 +9289,7 @@
       <c r="C30" s="23"/>
       <c r="D30" s="24"/>
     </row>
-    <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="29" t="s">
         <v>33</v>
       </c>
@@ -9271,19 +9326,19 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.1640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="42.125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" style="31" customWidth="1"/>
-    <col min="6" max="7" width="15.33203125" style="45" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="45" customWidth="1"/>
-    <col min="9" max="16384" width="42.1640625" style="31"/>
+    <col min="1" max="1" width="21.125" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="6.125" style="31" customWidth="1"/>
+    <col min="6" max="7" width="15.375" style="45" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="45" customWidth="1"/>
+    <col min="9" max="16384" width="42.125" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
@@ -9296,12 +9351,12 @@
       <c r="G2" s="45"/>
       <c r="H2" s="45"/>
     </row>
-    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F3" s="46"/>
       <c r="G3" s="45"/>
       <c r="H3" s="45"/>
     </row>
-    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
@@ -9316,12 +9371,12 @@
       <c r="G4" s="45"/>
       <c r="H4" s="45"/>
     </row>
-    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F5" s="46"/>
       <c r="G5" s="45"/>
       <c r="H5" s="45"/>
     </row>
-    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
@@ -9334,7 +9389,7 @@
       <c r="G6" s="45"/>
       <c r="H6" s="45"/>
     </row>
-    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="22" t="s">
         <v>23</v>
@@ -9345,7 +9400,7 @@
       <c r="G7" s="45"/>
       <c r="H7" s="45"/>
     </row>
-    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="26"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
@@ -9354,12 +9409,12 @@
       <c r="G8" s="45"/>
       <c r="H8" s="45"/>
     </row>
-    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F9" s="46"/>
       <c r="G9" s="45"/>
       <c r="H9" s="45"/>
     </row>
-    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
@@ -9370,7 +9425,7 @@
       <c r="G10" s="45"/>
       <c r="H10" s="45"/>
     </row>
-    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
@@ -9381,12 +9436,12 @@
       <c r="G11" s="45"/>
       <c r="H11" s="45"/>
     </row>
-    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F12" s="46"/>
       <c r="G12" s="45"/>
       <c r="H12" s="45"/>
     </row>
-    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="118" t="s">
         <v>26</v>
       </c>
@@ -9397,7 +9452,7 @@
       <c r="G13" s="45"/>
       <c r="H13" s="45"/>
     </row>
-    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
@@ -9412,7 +9467,7 @@
       <c r="G14" s="45"/>
       <c r="H14" s="45"/>
     </row>
-    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -9425,7 +9480,7 @@
       <c r="G15" s="45"/>
       <c r="H15" s="45"/>
     </row>
-    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
@@ -9438,7 +9493,7 @@
       <c r="G16" s="45"/>
       <c r="H16" s="45"/>
     </row>
-    <row r="17" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="29" t="s">
         <v>33</v>
       </c>
@@ -9449,12 +9504,12 @@
       <c r="D17" s="24"/>
       <c r="F17" s="46"/>
     </row>
-    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F18" s="46"/>
       <c r="G18" s="45"/>
       <c r="H18" s="45"/>
     </row>
-    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="121" t="s">
         <v>14</v>
       </c>
@@ -9465,7 +9520,7 @@
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
     </row>
-    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>34</v>
       </c>
@@ -9482,7 +9537,7 @@
       <c r="G20" s="45"/>
       <c r="H20" s="45"/>
     </row>
-    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>29</v>
       </c>
@@ -9499,7 +9554,7 @@
       <c r="G21" s="45"/>
       <c r="H21" s="45"/>
     </row>
-    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26"/>
       <c r="B22" s="32" t="s">
         <v>37</v>
@@ -9510,7 +9565,7 @@
       <c r="G22" s="45"/>
       <c r="H22" s="45"/>
     </row>
-    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>31</v>
       </c>
@@ -9521,7 +9576,7 @@
       <c r="G23" s="45"/>
       <c r="H23" s="45"/>
     </row>
-    <row r="24" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="29" t="s">
         <v>33</v>
       </c>
@@ -9532,22 +9587,22 @@
       <c r="D24" s="24"/>
       <c r="F24" s="46"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F25" s="46"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F26" s="46"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F27" s="46"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F28" s="46"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F29" s="46"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F30" s="46"/>
     </row>
   </sheetData>

--- a/PagoExpensas/AlquileresApp-P561972.xlsx
+++ b/PagoExpensas/AlquileresApp-P561972.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{4E34103A-F72A-0540-8E76-07CC9E84A1DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{78307CD9-96FD-45E8-87F9-CA1E38575821}"/>
   <bookViews>
-    <workbookView xWindow="-15420" yWindow="-15690" windowWidth="21060" windowHeight="14130" tabRatio="535" firstSheet="10" activeTab="14" xr2:uid="{588A6F5C-727E-C144-960C-2E5EA3C9F402}"/>
+    <workbookView xWindow="-18000" yWindow="-16410" windowWidth="29040" windowHeight="15990" tabRatio="535" firstSheet="10" activeTab="14" xr2:uid="{588A6F5C-727E-C144-960C-2E5EA3C9F402}"/>
   </bookViews>
   <sheets>
     <sheet name="Ingresos" sheetId="1" r:id="rId1"/>
@@ -1495,6 +1495,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
@@ -5122,7 +5126,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="5" topLeftCell="V1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AC12" sqref="AC12"/>
+      <selection pane="topRight" activeCell="AC7" sqref="AC7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6250,11 +6254,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="T1:U1"/>
     <mergeCell ref="R1:S1"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="F1:G1"/>
@@ -6262,6 +6261,11 @@
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="N1:O1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="T1:U1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7307,7 +7311,7 @@
       </c>
       <c r="B1" s="9">
         <f ca="1">TODAY()</f>
-        <v>45505</v>
+        <v>45506</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
